--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{979206C8-114A-4269-A9CB-43A52319E3D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7F425A-B1CE-4244-8962-D37621750C9B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="301">
   <si>
     <t>Guard</t>
   </si>
@@ -665,13 +665,286 @@
   </si>
   <si>
     <t>Cinder</t>
+  </si>
+  <si>
+    <t>Bronze:</t>
+  </si>
+  <si>
+    <t>Image By:</t>
+  </si>
+  <si>
+    <t>Wood Spectre + 2x Wood Walker</t>
+  </si>
+  <si>
+    <t>Shawn</t>
+  </si>
+  <si>
+    <t>Venus Djinn</t>
+  </si>
+  <si>
+    <t>bringobonog</t>
+  </si>
+  <si>
+    <t>Mars Djinn</t>
+  </si>
+  <si>
+    <t>JupiterDjinn</t>
+  </si>
+  <si>
+    <t>Mercury Djinn</t>
+  </si>
+  <si>
+    <t>Antlion</t>
+  </si>
+  <si>
+    <t>Saturos</t>
+  </si>
+  <si>
+    <t>Mimic</t>
+  </si>
+  <si>
+    <t>9x Slimes</t>
+  </si>
+  <si>
+    <t>Wyvern/Gryphon/Wynvern</t>
+  </si>
+  <si>
+    <t>3x Skeleton</t>
+  </si>
+  <si>
+    <t>Sean/Ouranos</t>
+  </si>
+  <si>
+    <t>Azart</t>
+  </si>
+  <si>
+    <t>Thief/Bandit/Thief</t>
+  </si>
+  <si>
+    <t>3x Mauler</t>
+  </si>
+  <si>
+    <t>3x Crab</t>
+  </si>
+  <si>
+    <t>Seafighter</t>
+  </si>
+  <si>
+    <t>Emus</t>
+  </si>
+  <si>
+    <t>Goblins</t>
+  </si>
+  <si>
+    <t>Chestbeaters</t>
+  </si>
+  <si>
+    <t>Moapa Knight</t>
+  </si>
+  <si>
+    <t>King Scorption</t>
+  </si>
+  <si>
+    <t>Mad Plant</t>
+  </si>
+  <si>
+    <t>Tret</t>
+  </si>
+  <si>
+    <t>Feitzhi/Hsu?</t>
+  </si>
+  <si>
+    <t>Kaja</t>
+  </si>
+  <si>
+    <t>Werewolves</t>
+  </si>
+  <si>
+    <t>Dwarfs</t>
+  </si>
+  <si>
+    <t>Living Armor</t>
+  </si>
+  <si>
+    <t>Ghost Army</t>
+  </si>
+  <si>
+    <t>Punch Ants</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Image By</t>
+  </si>
+  <si>
+    <t>Isaac</t>
+  </si>
+  <si>
+    <t>TBS Gang</t>
+  </si>
+  <si>
+    <t>TLA Gang</t>
+  </si>
+  <si>
+    <t>Djinn Lineup</t>
+  </si>
+  <si>
+    <t>Piers/Eoleo</t>
+  </si>
+  <si>
+    <t>Hydros Statue + 2x Living Statue</t>
+  </si>
+  <si>
+    <t>Killer Ape + 4x Apes</t>
+  </si>
+  <si>
+    <t>Hobgoblin + 2x Virago</t>
+  </si>
+  <si>
+    <t>Succubus + 2x Grisly</t>
+  </si>
+  <si>
+    <t>Lich + 2x Fiendish Ghoul</t>
+  </si>
+  <si>
+    <t>2x Gryphon</t>
+  </si>
+  <si>
+    <t>Satrage</t>
+  </si>
+  <si>
+    <t>Navampa</t>
+  </si>
+  <si>
+    <t>2x Nue</t>
+  </si>
+  <si>
+    <t>Briggs + 2x seafighter</t>
+  </si>
+  <si>
+    <t>Serpent</t>
+  </si>
+  <si>
+    <t>Minotaurs</t>
+  </si>
+  <si>
+    <t>Susa + Miko + Curse Mage</t>
+  </si>
+  <si>
+    <t>Avimander</t>
+  </si>
+  <si>
+    <t>2x Moapa Knight</t>
+  </si>
+  <si>
+    <t>Menardi</t>
+  </si>
+  <si>
+    <t>Toadonpa</t>
+  </si>
+  <si>
+    <t>Manticore</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image </t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Cursed Saturos</t>
+  </si>
+  <si>
+    <t>Benus Djinn</t>
+  </si>
+  <si>
+    <t>Saturos + Menardi</t>
+  </si>
+  <si>
+    <t>Deadbeard</t>
+  </si>
+  <si>
+    <t>TLA lineup</t>
+  </si>
+  <si>
+    <t>Lizard King</t>
+  </si>
+  <si>
+    <t>2x Chimera</t>
+  </si>
+  <si>
+    <t>2x Earth Lizard</t>
+  </si>
+  <si>
+    <t>Gldiators</t>
+  </si>
+  <si>
+    <t>Poison Toad + 2x Thunder Lizard</t>
+  </si>
+  <si>
+    <t>Succubus + 2x Lich</t>
+  </si>
+  <si>
+    <t>2x Hobgoblin</t>
+  </si>
+  <si>
+    <t>Lizard King + Eath/Thunder</t>
+  </si>
+  <si>
+    <t>Serpent 1</t>
+  </si>
+  <si>
+    <t>Serpent 2</t>
+  </si>
+  <si>
+    <t>Mini Sentinel</t>
+  </si>
+  <si>
+    <t>2x Wonderbird</t>
+  </si>
+  <si>
+    <t>Ogre Titans 1-4</t>
+  </si>
+  <si>
+    <t>Ogre Titan 5</t>
+  </si>
+  <si>
+    <t>Moapa</t>
+  </si>
+  <si>
+    <t>Gabomba</t>
+  </si>
+  <si>
+    <t>Poseidon</t>
+  </si>
+  <si>
+    <t>Mountain Roc</t>
+  </si>
+  <si>
+    <t>Ruffians</t>
+  </si>
+  <si>
+    <t>(Super Slambo)</t>
+  </si>
+  <si>
+    <t>Danny's Fren</t>
+  </si>
+  <si>
+    <t>eLTeh</t>
+  </si>
+  <si>
+    <t>Shuuda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,6 +1027,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -808,10 +1087,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -830,9 +1110,16 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{96F5CFF9-578C-433E-B401-E4A3F8FFBEAD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1146,7 +1433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2B1135-77C9-499B-B6C9-9E2B30F8D34D}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
@@ -2265,4 +2552,397 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F22D4E-FC21-4D0F-B535-11FE6D9F512D}">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" style="18" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="18"/>
+    <col min="4" max="4" width="27.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="18"/>
+    <col min="7" max="7" width="15.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="D4" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7F425A-B1CE-4244-8962-D37621750C9B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3079DB-A411-4327-98EF-B9C9E1F3173F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
+    <workbookView xWindow="28680" yWindow="-4365" windowWidth="21840" windowHeight="13290" activeTab="4" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="316">
   <si>
     <t>Guard</t>
   </si>
@@ -938,6 +938,51 @@
   </si>
   <si>
     <t>Shuuda</t>
+  </si>
+  <si>
+    <t>Karst/Agatio</t>
+  </si>
+  <si>
+    <t>Kraken</t>
+  </si>
+  <si>
+    <t>Tornado, Storm, Tempset Lizard</t>
+  </si>
+  <si>
+    <t>Aqua Hydra</t>
+  </si>
+  <si>
+    <t>Sand Prince &amp; Ice Queen</t>
+  </si>
+  <si>
+    <t>Chralis</t>
+  </si>
+  <si>
+    <t>Blados</t>
+  </si>
+  <si>
+    <t>Volechek</t>
+  </si>
+  <si>
+    <t>Aka Manah</t>
+  </si>
+  <si>
+    <t>Blube Dragon</t>
+  </si>
+  <si>
+    <t>Druj</t>
+  </si>
+  <si>
+    <t>Flame Dragons</t>
+  </si>
+  <si>
+    <t>Golem</t>
+  </si>
+  <si>
+    <t>Sludge</t>
+  </si>
+  <si>
+    <t>Stealthy Scouts</t>
   </si>
 </sst>
 </file>
@@ -2556,10 +2601,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F22D4E-FC21-4D0F-B535-11FE6D9F512D}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2572,7 +2617,7 @@
     <col min="8" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>210</v>
       </c>
@@ -2592,7 +2637,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>214</v>
       </c>
@@ -2609,7 +2654,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>216</v>
       </c>
@@ -2623,7 +2668,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>217</v>
       </c>
@@ -2641,7 +2686,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>218</v>
       </c>
@@ -2655,7 +2700,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>219</v>
       </c>
@@ -2669,7 +2714,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>220</v>
       </c>
@@ -2680,7 +2725,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>212</v>
       </c>
@@ -2693,8 +2738,11 @@
       <c r="G8" s="18" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>221</v>
       </c>
@@ -2707,8 +2755,11 @@
       <c r="G9" s="18" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>222</v>
       </c>
@@ -2721,8 +2772,11 @@
       <c r="G10" s="18" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>223</v>
       </c>
@@ -2732,8 +2786,11 @@
       <c r="G11" s="18" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>224</v>
       </c>
@@ -2743,8 +2800,11 @@
       <c r="G12" s="18" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>225</v>
       </c>
@@ -2757,8 +2817,11 @@
       <c r="G13" s="18" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>226</v>
       </c>
@@ -2768,8 +2831,11 @@
       <c r="G14" s="18" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>227</v>
       </c>
@@ -2779,16 +2845,22 @@
       <c r="G15" s="18" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>228</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>229</v>
       </c>
@@ -2798,8 +2870,11 @@
       <c r="G17" s="18" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>230</v>
       </c>
@@ -2809,8 +2884,11 @@
       <c r="G18" s="18" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>231</v>
       </c>
@@ -2820,8 +2898,11 @@
       <c r="G19" s="18" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>232</v>
       </c>
@@ -2831,21 +2912,30 @@
       <c r="G20" s="18" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>296</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="18" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>233</v>
       </c>
@@ -2853,7 +2943,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>234</v>
       </c>
@@ -2861,7 +2951,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>235</v>
       </c>
@@ -2869,7 +2959,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>236</v>
       </c>
@@ -2877,7 +2967,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>237</v>
       </c>
@@ -2885,12 +2975,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>239</v>
       </c>
@@ -2898,7 +2988,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>240</v>
       </c>
@@ -2906,7 +2996,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>241</v>
       </c>
@@ -2917,7 +3007,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>242</v>
       </c>

--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3079DB-A411-4327-98EF-B9C9E1F3173F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB257B4F-7CF8-4C41-8283-7334F7594E74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4365" windowWidth="21840" windowHeight="13290" activeTab="4" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Enemies" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="324">
   <si>
     <t>Guard</t>
   </si>
@@ -682,9 +682,6 @@
     <t>Venus Djinn</t>
   </si>
   <si>
-    <t>bringobonog</t>
-  </si>
-  <si>
     <t>Mars Djinn</t>
   </si>
   <si>
@@ -983,6 +980,33 @@
   </si>
   <si>
     <t>Stealthy Scouts</t>
+  </si>
+  <si>
+    <t>bringobrongo</t>
+  </si>
+  <si>
+    <t>Mono:</t>
+  </si>
+  <si>
+    <t>Dual:</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Unlock</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>15 CW</t>
   </si>
 </sst>
 </file>
@@ -1476,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2B1135-77C9-499B-B6C9-9E2B30F8D34D}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2042,6 +2066,41 @@
       </c>
       <c r="N20" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>316</v>
+      </c>
+      <c r="E25" t="s">
+        <v>319</v>
+      </c>
+      <c r="F25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>318</v>
+      </c>
+      <c r="E26" t="s">
+        <v>320</v>
+      </c>
+      <c r="F26" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2361,7 +2420,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J4"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2603,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F22D4E-FC21-4D0F-B535-11FE6D9F512D}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2625,16 +2684,16 @@
         <v>211</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>246</v>
-      </c>
       <c r="G1" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>270</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2642,59 +2701,59 @@
         <v>214</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>215</v>
+        <v>315</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4" s="19"/>
       <c r="D4" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>213</v>
@@ -2702,27 +2761,27 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>213</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2733,302 +2792,302 @@
         <v>213</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>213</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>213</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB257B4F-7CF8-4C41-8283-7334F7594E74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8181D7C1-B40B-4286-AFC2-81C3050A30DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="325">
   <si>
     <t>Guard</t>
   </si>
@@ -1007,6 +1007,9 @@
   </si>
   <si>
     <t>15 CW</t>
+  </si>
+  <si>
+    <t>Mimibits</t>
   </si>
 </sst>
 </file>
@@ -1502,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2B1135-77C9-499B-B6C9-9E2B30F8D34D}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1859,7 +1862,7 @@
         <v>8</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>7</v>
@@ -2114,7 +2117,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2288,7 +2291,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2662,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F22D4E-FC21-4D0F-B535-11FE6D9F512D}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2720,6 +2723,9 @@
       <c r="D3" s="18" t="s">
         <v>247</v>
       </c>
+      <c r="E3" s="18" t="s">
+        <v>324</v>
+      </c>
       <c r="G3" s="18" t="s">
         <v>272</v>
       </c>

--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8181D7C1-B40B-4286-AFC2-81C3050A30DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A432BBF1-2283-43D1-9CB2-8A46A39A6DBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
+    <workbookView minimized="1" xWindow="696" yWindow="2016" windowWidth="17280" windowHeight="9012" activeTab="5" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Enemies" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="339">
   <si>
     <t>Guard</t>
   </si>
@@ -1010,6 +1011,48 @@
   </si>
   <si>
     <t>Mimibits</t>
+  </si>
+  <si>
+    <t>Angara</t>
+  </si>
+  <si>
+    <t>Vale to Vault</t>
+  </si>
+  <si>
+    <t>Vermin, Zombies</t>
+  </si>
+  <si>
+    <t>Mobs</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>Rewards</t>
+  </si>
+  <si>
+    <t>Bandit</t>
+  </si>
+  <si>
+    <t>Goma Cave</t>
+  </si>
+  <si>
+    <t>Cursed Tree</t>
+  </si>
+  <si>
+    <t>Kolima</t>
+  </si>
+  <si>
+    <t>Venus Djinn, Jupiter Djinn, Tret</t>
+  </si>
+  <si>
+    <t>Imil</t>
+  </si>
+  <si>
+    <t>Lizard King, Mars Djinn, Mercury Djinn, Mia, Saturos</t>
+  </si>
+  <si>
+    <t>South Angara</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1146,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="204"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2665,7 +2708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F22D4E-FC21-4D0F-B535-11FE6D9F512D}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -3100,4 +3143,73 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC84A19-D4A7-4A92-BABE-05F233968AC8}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A432BBF1-2283-43D1-9CB2-8A46A39A6DBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C40160-FE8D-4E59-9AB2-FC52B4C6C4D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="696" yWindow="2016" windowWidth="17280" windowHeight="9012" activeTab="5" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="319">
   <si>
     <t>Guard</t>
   </si>
@@ -305,63 +305,9 @@
     <t>Gale</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
-    <t>Mixed</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
-    <t>AoE</t>
-  </si>
-  <si>
-    <t>High Damage</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Healer</t>
-  </si>
-  <si>
-    <t>Squire (M)</t>
-  </si>
-  <si>
-    <t>Miko (M)</t>
-  </si>
-  <si>
-    <t>Flame User (M)</t>
-  </si>
-  <si>
-    <t>Guard (O)</t>
-  </si>
-  <si>
-    <t>Pirate (O)</t>
-  </si>
-  <si>
-    <t>Wind Seer (M)</t>
-  </si>
-  <si>
-    <t>Scrapper (D)</t>
-  </si>
-  <si>
-    <t>bk</t>
-  </si>
-  <si>
     <t>Call x</t>
   </si>
   <si>
@@ -452,9 +398,6 @@
     <t>Whiplash</t>
   </si>
   <si>
-    <t>Estre Wood</t>
-  </si>
-  <si>
     <t>Dark Mage</t>
   </si>
   <si>
@@ -986,30 +929,6 @@
     <t>bringobrongo</t>
   </si>
   <si>
-    <t>Mono:</t>
-  </si>
-  <si>
-    <t>Dual:</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Unlock</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Upgrade</t>
-  </si>
-  <si>
-    <t>15 CW</t>
-  </si>
-  <si>
     <t>Mimibits</t>
   </si>
   <si>
@@ -1053,13 +972,34 @@
   </si>
   <si>
     <t>South Angara</t>
+  </si>
+  <si>
+    <t>Virize</t>
+  </si>
+  <si>
+    <t>Squire</t>
+  </si>
+  <si>
+    <t>Miko</t>
+  </si>
+  <si>
+    <t>Flame User</t>
+  </si>
+  <si>
+    <t>Pirate</t>
+  </si>
+  <si>
+    <t>Wind Seer</t>
+  </si>
+  <si>
+    <t>Scrapper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1076,15 +1016,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1092,64 +1030,12 @@
     <font>
       <i/>
       <sz val="11"/>
-      <color theme="7" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5" tint="0.79998168889431442"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="2" tint="-0.749992370372631"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1188,12 +1074,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1201,36 +1105,183 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1546,607 +1597,641 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2B1135-77C9-499B-B6C9-9E2B30F8D34D}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.21875" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.109375" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>102</v>
+        <v>313</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>316</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>104</v>
+        <v>317</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="I2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="J2" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="H3" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="I3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="J3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" t="s">
-        <v>89</v>
-      </c>
-      <c r="R3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="F4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="G4" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>97</v>
-      </c>
-      <c r="R4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="G20" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>98</v>
-      </c>
-      <c r="R5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="Q6" t="s">
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>114</v>
+      </c>
+      <c r="J23" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>115</v>
+      </c>
+      <c r="J24" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" t="s">
         <v>90</v>
       </c>
-      <c r="R6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="Q7" t="s">
-        <v>96</v>
-      </c>
-      <c r="R7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>93</v>
-      </c>
-      <c r="R8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="H11" s="7" t="s">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>117</v>
+      </c>
+      <c r="K26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
         <v>8</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" t="s">
-        <v>132</v>
-      </c>
-      <c r="M15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" t="s">
-        <v>133</v>
-      </c>
-      <c r="M16" t="s">
-        <v>137</v>
-      </c>
-      <c r="N16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" t="s">
-        <v>134</v>
-      </c>
-      <c r="N17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="L18" t="s">
-        <v>135</v>
-      </c>
-      <c r="N18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
-        <v>316</v>
-      </c>
-      <c r="E25" t="s">
-        <v>319</v>
-      </c>
-      <c r="F25" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D26" t="s">
-        <v>318</v>
-      </c>
-      <c r="E26" t="s">
-        <v>320</v>
-      </c>
-      <c r="F26" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" t="s">
-        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2160,7 +2245,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2179,16 +2264,16 @@
         <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F1" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2196,10 +2281,10 @@
         <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2207,20 +2292,20 @@
         <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2228,21 +2313,21 @@
         <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -2250,16 +2335,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2267,10 +2352,10 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="F10" t="s">
         <v>42</v>
@@ -2286,22 +2371,22 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2311,17 +2396,17 @@
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2347,18 +2432,18 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
         <v>111</v>
-      </c>
-      <c r="B1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2366,49 +2451,49 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2418,41 +2503,41 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2480,36 +2565,36 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="H1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -2518,27 +2603,27 @@
         <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="H2" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="I2" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="J2" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -2547,41 +2632,41 @@
         <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="J3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
       </c>
       <c r="D4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" t="s">
         <v>183</v>
       </c>
-      <c r="E4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G4" t="s">
-        <v>202</v>
-      </c>
       <c r="J4" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -2593,21 +2678,21 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2634,69 +2719,69 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" t="s">
         <v>174</v>
       </c>
-      <c r="B15" t="s">
-        <v>193</v>
-      </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2708,435 +2793,438 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F22D4E-FC21-4D0F-B535-11FE6D9F512D}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScale="72" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="18" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="18"/>
-    <col min="4" max="4" width="27.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="18"/>
-    <col min="7" max="7" width="15.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="28.33203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D18" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D19" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G20" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="D2" s="18" t="s">
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="18" t="s">
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="E31" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="D4" s="18" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="D5" s="18" t="s">
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3149,64 +3237,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC84A19-D4A7-4A92-BABE-05F233968AC8}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="C1" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="D1" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="C4" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="C5" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C40160-FE8D-4E59-9AB2-FC52B4C6C4D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A73D904-B055-46B3-9608-2D6F3FD1B04F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Enemies" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Enemies" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="398">
   <si>
     <t>Guard</t>
   </si>
@@ -932,45 +933,9 @@
     <t>Mimibits</t>
   </si>
   <si>
-    <t>Angara</t>
-  </si>
-  <si>
-    <t>Vale to Vault</t>
-  </si>
-  <si>
-    <t>Vermin, Zombies</t>
-  </si>
-  <si>
     <t>Mobs</t>
   </si>
   <si>
-    <t>Boss</t>
-  </si>
-  <si>
-    <t>Rewards</t>
-  </si>
-  <si>
-    <t>Bandit</t>
-  </si>
-  <si>
-    <t>Goma Cave</t>
-  </si>
-  <si>
-    <t>Cursed Tree</t>
-  </si>
-  <si>
-    <t>Kolima</t>
-  </si>
-  <si>
-    <t>Venus Djinn, Jupiter Djinn, Tret</t>
-  </si>
-  <si>
-    <t>Imil</t>
-  </si>
-  <si>
-    <t>Lizard King, Mars Djinn, Mercury Djinn, Mia, Saturos</t>
-  </si>
-  <si>
     <t>South Angara</t>
   </si>
   <si>
@@ -993,6 +958,279 @@
   </si>
   <si>
     <t>Scrapper</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
+  <si>
+    <t>extra (Djinn, Equipment, ..)</t>
+  </si>
+  <si>
+    <t>Bind</t>
+  </si>
+  <si>
+    <t>Protect</t>
+  </si>
+  <si>
+    <t>Haunt/Curse/Condemn</t>
+  </si>
+  <si>
+    <t>Haunt/Curse/ Condemn</t>
+  </si>
+  <si>
+    <t>Sleep/ Delusion</t>
+  </si>
+  <si>
+    <t>Curse/Haunt/Weaken/ Delude/Sleep</t>
+  </si>
+  <si>
+    <t>Notes for Tolbi:</t>
+  </si>
+  <si>
+    <t>Ember</t>
+  </si>
+  <si>
+    <t>Babis Guards</t>
+  </si>
+  <si>
+    <t>Colosso:</t>
+  </si>
+  <si>
+    <t>8 Gladiators</t>
+  </si>
+  <si>
+    <t>3 Generic Gladiators</t>
+  </si>
+  <si>
+    <t>Star Chamber</t>
+  </si>
+  <si>
+    <t>Boom Balls</t>
+  </si>
+  <si>
+    <t>Djinn</t>
+  </si>
+  <si>
+    <t>Mercury Djinn (Hail)</t>
+  </si>
+  <si>
+    <t>Thieves, Thugs, Assassins (steal corn cob)</t>
+  </si>
+  <si>
+    <t>9 Star Magician Balls</t>
+  </si>
+  <si>
+    <t>Star Apprentice</t>
+  </si>
+  <si>
+    <t>Critter Chaos (9 each)</t>
+  </si>
+  <si>
+    <t>vermin</t>
+  </si>
+  <si>
+    <t>slimes</t>
+  </si>
+  <si>
+    <t>spiders</t>
+  </si>
+  <si>
+    <t>Fighter Bee</t>
+  </si>
+  <si>
+    <t>Aqua Jelly</t>
+  </si>
+  <si>
+    <t>Assassin</t>
+  </si>
+  <si>
+    <t>Skull Warrior</t>
+  </si>
+  <si>
+    <t>Akah Manah</t>
+  </si>
+  <si>
+    <t>Aqua Hydra/Gillman</t>
+  </si>
+  <si>
+    <t>Brigand</t>
+  </si>
+  <si>
+    <t>Sea Fighter</t>
+  </si>
+  <si>
+    <t>Spiral Shell</t>
+  </si>
+  <si>
+    <t>Turtle Dragons</t>
+  </si>
+  <si>
+    <t>magician balls</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Dungeon</t>
+  </si>
+  <si>
+    <t>Endless</t>
+  </si>
+  <si>
+    <t>PvP-A</t>
+  </si>
+  <si>
+    <t>PvP-B</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>PvP</t>
+  </si>
+  <si>
+    <t>Proposal</t>
+  </si>
+  <si>
+    <t>Randoms, Random-Battle, wild Encounter, …</t>
+  </si>
+  <si>
+    <t>Wilds, World, Dungeon 1/2/A/B, …</t>
+  </si>
+  <si>
+    <t>Endless Showdown, Infinity something, …</t>
+  </si>
+  <si>
+    <t>colosso-bronze, silver, gold</t>
+  </si>
+  <si>
+    <t>colosso-Showdown</t>
+  </si>
+  <si>
+    <t>colosso-pvpteama</t>
+  </si>
+  <si>
+    <t>colosso-pvpteamb</t>
+  </si>
+  <si>
+    <t>Moles</t>
+  </si>
+  <si>
+    <t>Altmiller</t>
+  </si>
+  <si>
+    <t>Suhalla</t>
+  </si>
+  <si>
+    <t>Bats &amp; Gnome</t>
+  </si>
+  <si>
+    <t>Orc &amp; Ape</t>
+  </si>
+  <si>
+    <t>Gondowan Cave</t>
+  </si>
+  <si>
+    <t>Karagol Sea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fountain Monster </t>
+  </si>
+  <si>
+    <t>(Calamar, Crab, Urchin Beast, Calamar)</t>
+  </si>
+  <si>
+    <t>Colosso</t>
+  </si>
+  <si>
+    <t>Merchant</t>
+  </si>
+  <si>
+    <t>90xp</t>
+  </si>
+  <si>
+    <t>80xp, 30g</t>
+  </si>
+  <si>
+    <t>300xp</t>
+  </si>
+  <si>
+    <t>40g, 70xp</t>
+  </si>
+  <si>
+    <t>30g, 80xp, Wooden/Silver Chest</t>
+  </si>
+  <si>
+    <t>40g, 70xp, Silver/Gold Chest</t>
+  </si>
+  <si>
+    <t>200g/Drops from fountain</t>
+  </si>
+  <si>
+    <t>Punishment</t>
+  </si>
+  <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>Lure Cap</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>Item Curse</t>
+  </si>
+  <si>
+    <t>Fake Gladiator</t>
+  </si>
+  <si>
+    <t>Which Shoot</t>
+  </si>
+  <si>
+    <t>"In the Colosso competition, the best Warrior of Weyard shall be found. But keep in mind what makes a good warrior… not only his strength, but also his wit shall be tested"</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Who is the oldest of the eight Warriors of Vale</t>
+  </si>
+  <si>
+    <t>Damage (25%)</t>
+  </si>
+  <si>
+    <t>Damage (50%)</t>
+  </si>
+  <si>
+    <t>Who did Babi go to Lemuria with</t>
+  </si>
+  <si>
+    <t>Which Djinn do you not start a journey with</t>
+  </si>
+  <si>
+    <t>Which Item negates the effects of curse</t>
+  </si>
+  <si>
+    <t>Dekka</t>
+  </si>
+  <si>
+    <t>Morgan</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1093,6 +1331,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,7 +1471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1272,7 +1516,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1282,6 +1525,23 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1597,10 +1857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2B1135-77C9-499B-B6C9-9E2B30F8D34D}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1619,24 +1879,24 @@
     <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -1653,7 +1913,7 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -1670,7 +1930,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>19</v>
@@ -1687,11 +1947,11 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="53" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1703,8 +1963,8 @@
       <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>18</v>
+      <c r="F3" s="52" t="s">
+        <v>312</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>69</v>
@@ -1721,26 +1981,26 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="45" t="s">
         <v>150</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="48" t="s">
         <v>79</v>
       </c>
       <c r="H4" s="19" t="s">
@@ -1755,14 +2015,14 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>70</v>
       </c>
       <c r="D5" s="25" t="s">
@@ -1783,13 +2043,13 @@
       <c r="I5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="42" t="s">
         <v>80</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1803,7 +2063,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1817,7 +2077,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>30</v>
       </c>
@@ -1834,13 +2094,7 @@
         <v>33</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>50</v>
+        <v>306</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>36</v>
@@ -1854,8 +2108,14 @@
       <c r="L8" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>37</v>
       </c>
@@ -1874,12 +2134,6 @@
       <c r="F9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="I9" s="8" t="s">
         <v>41</v>
       </c>
@@ -1892,8 +2146,14 @@
       <c r="L9" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1903,7 +2163,7 @@
       <c r="C10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="40" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -1912,12 +2172,6 @@
       <c r="F10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="I10" s="8" t="s">
         <v>71</v>
       </c>
@@ -1930,32 +2184,32 @@
       <c r="L10" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41" t="s">
+      <c r="M10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
         <v>70</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="45" t="s">
         <v>113</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>44</v>
-      </c>
       <c r="I11" s="38" t="s">
         <v>8</v>
       </c>
@@ -1965,35 +2219,35 @@
       <c r="K11" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="49" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="42" t="s">
         <v>70</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="44" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>13</v>
-      </c>
       <c r="I12" s="23" t="s">
         <v>25</v>
       </c>
@@ -2003,25 +2257,57 @@
       <c r="K12" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="40" t="s">
+      <c r="L12" s="50" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="K13" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -2035,51 +2321,39 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>59</v>
-      </c>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>60</v>
-      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>41</v>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>22</v>
+      <c r="E16" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -2089,23 +2363,23 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -2115,23 +2389,23 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -2140,24 +2414,24 @@
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="48" t="s">
-        <v>85</v>
+      <c r="A19" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>7</v>
+      <c r="G19" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -2166,24 +2440,24 @@
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
-        <v>86</v>
+      <c r="A20" s="47" t="s">
+        <v>85</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>26</v>
+        <v>88</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>8</v>
+      <c r="E20" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>7</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -2191,46 +2465,72 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I23" t="s">
-        <v>114</v>
-      </c>
-      <c r="J23" t="s">
-        <v>118</v>
-      </c>
-      <c r="K23" t="s">
-        <v>120</v>
-      </c>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K24" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="J25" t="s">
+        <v>119</v>
       </c>
       <c r="K25" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I26" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
         <v>117</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K27" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K28" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2241,6 +2541,120 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B7C81B-CCF0-4973-B9ED-154735BB83D5}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="22.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>381</v>
+      </c>
+      <c r="C1">
+        <f>(B1-A1)/99</f>
+        <v>3.5454545454545454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>355</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C4" si="0">(B2-A2)/99</f>
+        <v>3.2525252525252526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>-0.32323232323232326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>-0.30303030303030304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <f>AVERAGE(B1:B4)</f>
+        <v>368</v>
+      </c>
+      <c r="C5">
+        <f>AVERAGE(C1:C4)</f>
+        <v>1.5429292929292928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>798</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>77</v>
+      </c>
+      <c r="E10">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f>A10+(B10-A10)/99*C10</f>
+        <v>301.5151515151515</v>
+      </c>
+      <c r="D12">
+        <f>(B12+D10)*E10</f>
+        <v>719.17878787878783</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3034823A-014A-402D-994F-F4A05E7ABD19}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -2414,7 +2828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21AE0FE-0550-4A50-A428-F4972BDBD2F3}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -2546,7 +2960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B53968-0167-4F4F-BD4B-0794225E238B}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -2789,7 +3203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F22D4E-FC21-4D0F-B535-11FE6D9F512D}">
   <dimension ref="A1:K34"/>
   <sheetViews>
@@ -2887,7 +3301,7 @@
         <v>230</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>201</v>
@@ -3233,71 +3647,384 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC84A19-D4A7-4A92-BABE-05F233968AC8}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1" t="s">
+        <v>352</v>
+      </c>
+      <c r="M1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>346</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>346</v>
+      </c>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>347</v>
+      </c>
+      <c r="L4" t="s">
+        <v>353</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>347</v>
+      </c>
+      <c r="L5" t="s">
+        <v>353</v>
+      </c>
+      <c r="M5" s="54"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>348</v>
+      </c>
+      <c r="L6" t="s">
+        <v>360</v>
+      </c>
+      <c r="M6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L7" t="s">
+        <v>361</v>
+      </c>
+      <c r="M7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>354</v>
+      </c>
+      <c r="L8" t="s">
+        <v>362</v>
+      </c>
+      <c r="M8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>318</v>
+      </c>
+      <c r="J14" t="s">
+        <v>324</v>
+      </c>
+      <c r="M14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>370</v>
+      </c>
+      <c r="B15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15" t="s">
+        <v>371</v>
+      </c>
+      <c r="D15" t="s">
+        <v>380</v>
+      </c>
+      <c r="J15" t="s">
+        <v>325</v>
+      </c>
+      <c r="M15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" t="s">
+        <v>374</v>
+      </c>
+      <c r="F16" t="s">
+        <v>322</v>
+      </c>
+      <c r="J16" t="s">
+        <v>326</v>
+      </c>
+      <c r="M16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C17" t="s">
+        <v>328</v>
+      </c>
+      <c r="D17" t="s">
+        <v>378</v>
+      </c>
+      <c r="J17" t="s">
+        <v>340</v>
+      </c>
+      <c r="M17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" t="s">
+        <v>375</v>
+      </c>
+      <c r="J18" t="s">
+        <v>329</v>
+      </c>
+      <c r="M18" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>323</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="D19" t="s">
+        <v>376</v>
+      </c>
+      <c r="J19" t="s">
+        <v>330</v>
+      </c>
+      <c r="M19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>298</v>
       </c>
-      <c r="B1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>311</v>
+      <c r="C20" t="s">
+        <v>363</v>
+      </c>
+      <c r="D20" t="s">
+        <v>379</v>
+      </c>
+      <c r="M20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D21" t="s">
+        <v>374</v>
+      </c>
+      <c r="M21" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>298</v>
+      </c>
+      <c r="B22" t="s">
+        <v>364</v>
+      </c>
+      <c r="C22" t="s">
+        <v>366</v>
+      </c>
+      <c r="D22" t="s">
+        <v>377</v>
+      </c>
+      <c r="M22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>298</v>
+      </c>
+      <c r="B23" t="s">
+        <v>368</v>
+      </c>
+      <c r="D23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>298</v>
+      </c>
+      <c r="B24" t="s">
+        <v>365</v>
+      </c>
+      <c r="C24" t="s">
+        <v>367</v>
+      </c>
+      <c r="D24" t="s">
+        <v>377</v>
+      </c>
+      <c r="M24" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>321</v>
+      </c>
+      <c r="B26" t="s">
+        <v>388</v>
+      </c>
+      <c r="C26" t="s">
+        <v>389</v>
+      </c>
+      <c r="M26" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>321</v>
+      </c>
+      <c r="B27" t="s">
+        <v>381</v>
+      </c>
+      <c r="D27" t="s">
+        <v>382</v>
+      </c>
+      <c r="M27" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>390</v>
+      </c>
+      <c r="B28" t="s">
+        <v>391</v>
+      </c>
+      <c r="M28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>397</v>
+      </c>
+      <c r="M29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>394</v>
+      </c>
+      <c r="B30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F30" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>395</v>
+      </c>
+      <c r="B32" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>387</v>
+      </c>
+      <c r="B34" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M4:M5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A73D904-B055-46B3-9608-2D6F3FD1B04F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C0ED3D-E93E-4DAE-A74D-A57518398A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
@@ -1532,16 +1532,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3651,8 +3651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC84A19-D4A7-4A92-BABE-05F233968AC8}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3697,7 +3697,7 @@
       <c r="L4" t="s">
         <v>353</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="57" t="s">
         <v>357</v>
       </c>
     </row>
@@ -3708,7 +3708,7 @@
       <c r="L5" t="s">
         <v>353</v>
       </c>
-      <c r="M5" s="54"/>
+      <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K6" t="s">
@@ -3829,7 +3829,7 @@
       <c r="A19" t="s">
         <v>323</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="54" t="s">
         <v>372</v>
       </c>
       <c r="D19" t="s">

--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB257B4F-7CF8-4C41-8283-7334F7594E74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C0ED3D-E93E-4DAE-A74D-A57518398A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Enemies" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Enemies" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="398">
   <si>
     <t>Guard</t>
   </si>
@@ -304,63 +306,9 @@
     <t>Gale</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
-    <t>Mixed</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
-    <t>AoE</t>
-  </si>
-  <si>
-    <t>High Damage</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Healer</t>
-  </si>
-  <si>
-    <t>Squire (M)</t>
-  </si>
-  <si>
-    <t>Miko (M)</t>
-  </si>
-  <si>
-    <t>Flame User (M)</t>
-  </si>
-  <si>
-    <t>Guard (O)</t>
-  </si>
-  <si>
-    <t>Pirate (O)</t>
-  </si>
-  <si>
-    <t>Wind Seer (M)</t>
-  </si>
-  <si>
-    <t>Scrapper (D)</t>
-  </si>
-  <si>
-    <t>bk</t>
-  </si>
-  <si>
     <t>Call x</t>
   </si>
   <si>
@@ -451,9 +399,6 @@
     <t>Whiplash</t>
   </si>
   <si>
-    <t>Estre Wood</t>
-  </si>
-  <si>
     <t>Dark Mage</t>
   </si>
   <si>
@@ -985,35 +930,314 @@
     <t>bringobrongo</t>
   </si>
   <si>
-    <t>Mono:</t>
-  </si>
-  <si>
-    <t>Dual:</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Unlock</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Upgrade</t>
-  </si>
-  <si>
-    <t>15 CW</t>
+    <t>Mimibits</t>
+  </si>
+  <si>
+    <t>Mobs</t>
+  </si>
+  <si>
+    <t>South Angara</t>
+  </si>
+  <si>
+    <t>Virize</t>
+  </si>
+  <si>
+    <t>Squire</t>
+  </si>
+  <si>
+    <t>Miko</t>
+  </si>
+  <si>
+    <t>Flame User</t>
+  </si>
+  <si>
+    <t>Pirate</t>
+  </si>
+  <si>
+    <t>Wind Seer</t>
+  </si>
+  <si>
+    <t>Scrapper</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
+  <si>
+    <t>extra (Djinn, Equipment, ..)</t>
+  </si>
+  <si>
+    <t>Bind</t>
+  </si>
+  <si>
+    <t>Protect</t>
+  </si>
+  <si>
+    <t>Haunt/Curse/Condemn</t>
+  </si>
+  <si>
+    <t>Haunt/Curse/ Condemn</t>
+  </si>
+  <si>
+    <t>Sleep/ Delusion</t>
+  </si>
+  <si>
+    <t>Curse/Haunt/Weaken/ Delude/Sleep</t>
+  </si>
+  <si>
+    <t>Notes for Tolbi:</t>
+  </si>
+  <si>
+    <t>Ember</t>
+  </si>
+  <si>
+    <t>Babis Guards</t>
+  </si>
+  <si>
+    <t>Colosso:</t>
+  </si>
+  <si>
+    <t>8 Gladiators</t>
+  </si>
+  <si>
+    <t>3 Generic Gladiators</t>
+  </si>
+  <si>
+    <t>Star Chamber</t>
+  </si>
+  <si>
+    <t>Boom Balls</t>
+  </si>
+  <si>
+    <t>Djinn</t>
+  </si>
+  <si>
+    <t>Mercury Djinn (Hail)</t>
+  </si>
+  <si>
+    <t>Thieves, Thugs, Assassins (steal corn cob)</t>
+  </si>
+  <si>
+    <t>9 Star Magician Balls</t>
+  </si>
+  <si>
+    <t>Star Apprentice</t>
+  </si>
+  <si>
+    <t>Critter Chaos (9 each)</t>
+  </si>
+  <si>
+    <t>vermin</t>
+  </si>
+  <si>
+    <t>slimes</t>
+  </si>
+  <si>
+    <t>spiders</t>
+  </si>
+  <si>
+    <t>Fighter Bee</t>
+  </si>
+  <si>
+    <t>Aqua Jelly</t>
+  </si>
+  <si>
+    <t>Assassin</t>
+  </si>
+  <si>
+    <t>Skull Warrior</t>
+  </si>
+  <si>
+    <t>Akah Manah</t>
+  </si>
+  <si>
+    <t>Aqua Hydra/Gillman</t>
+  </si>
+  <si>
+    <t>Brigand</t>
+  </si>
+  <si>
+    <t>Sea Fighter</t>
+  </si>
+  <si>
+    <t>Spiral Shell</t>
+  </si>
+  <si>
+    <t>Turtle Dragons</t>
+  </si>
+  <si>
+    <t>magician balls</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Dungeon</t>
+  </si>
+  <si>
+    <t>Endless</t>
+  </si>
+  <si>
+    <t>PvP-A</t>
+  </si>
+  <si>
+    <t>PvP-B</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>PvP</t>
+  </si>
+  <si>
+    <t>Proposal</t>
+  </si>
+  <si>
+    <t>Randoms, Random-Battle, wild Encounter, …</t>
+  </si>
+  <si>
+    <t>Wilds, World, Dungeon 1/2/A/B, …</t>
+  </si>
+  <si>
+    <t>Endless Showdown, Infinity something, …</t>
+  </si>
+  <si>
+    <t>colosso-bronze, silver, gold</t>
+  </si>
+  <si>
+    <t>colosso-Showdown</t>
+  </si>
+  <si>
+    <t>colosso-pvpteama</t>
+  </si>
+  <si>
+    <t>colosso-pvpteamb</t>
+  </si>
+  <si>
+    <t>Moles</t>
+  </si>
+  <si>
+    <t>Altmiller</t>
+  </si>
+  <si>
+    <t>Suhalla</t>
+  </si>
+  <si>
+    <t>Bats &amp; Gnome</t>
+  </si>
+  <si>
+    <t>Orc &amp; Ape</t>
+  </si>
+  <si>
+    <t>Gondowan Cave</t>
+  </si>
+  <si>
+    <t>Karagol Sea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fountain Monster </t>
+  </si>
+  <si>
+    <t>(Calamar, Crab, Urchin Beast, Calamar)</t>
+  </si>
+  <si>
+    <t>Colosso</t>
+  </si>
+  <si>
+    <t>Merchant</t>
+  </si>
+  <si>
+    <t>90xp</t>
+  </si>
+  <si>
+    <t>80xp, 30g</t>
+  </si>
+  <si>
+    <t>300xp</t>
+  </si>
+  <si>
+    <t>40g, 70xp</t>
+  </si>
+  <si>
+    <t>30g, 80xp, Wooden/Silver Chest</t>
+  </si>
+  <si>
+    <t>40g, 70xp, Silver/Gold Chest</t>
+  </si>
+  <si>
+    <t>200g/Drops from fountain</t>
+  </si>
+  <si>
+    <t>Punishment</t>
+  </si>
+  <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>Lure Cap</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>Item Curse</t>
+  </si>
+  <si>
+    <t>Fake Gladiator</t>
+  </si>
+  <si>
+    <t>Which Shoot</t>
+  </si>
+  <si>
+    <t>"In the Colosso competition, the best Warrior of Weyard shall be found. But keep in mind what makes a good warrior… not only his strength, but also his wit shall be tested"</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Who is the oldest of the eight Warriors of Vale</t>
+  </si>
+  <si>
+    <t>Damage (25%)</t>
+  </si>
+  <si>
+    <t>Damage (50%)</t>
+  </si>
+  <si>
+    <t>Who did Babi go to Lemuria with</t>
+  </si>
+  <si>
+    <t>Which Djinn do you not start a journey with</t>
+  </si>
+  <si>
+    <t>Which Item negates the effects of curse</t>
+  </si>
+  <si>
+    <t>Dekka</t>
+  </si>
+  <si>
+    <t>Morgan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1030,15 +1254,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1046,64 +1268,12 @@
     <font>
       <i/>
       <sz val="11"/>
-      <color theme="7" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5" tint="0.79998168889431442"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="2" tint="-0.749992370372631"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1142,12 +1312,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1155,35 +1349,198 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1500,607 +1857,681 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2B1135-77C9-499B-B6C9-9E2B30F8D34D}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.21875" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.109375" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>102</v>
+        <v>301</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>104</v>
+        <v>305</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="F2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="I2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="J2" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="F3" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="17" t="s">
+      <c r="D10" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="K13" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="L13" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" t="s">
-        <v>89</v>
-      </c>
-      <c r="R3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="F19" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>97</v>
-      </c>
-      <c r="R4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="G21" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>98</v>
-      </c>
-      <c r="R5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="Q6" t="s">
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>114</v>
+      </c>
+      <c r="J24" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25" t="s">
+        <v>119</v>
+      </c>
+      <c r="K25" t="s">
         <v>90</v>
       </c>
-      <c r="R6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="Q7" t="s">
-        <v>96</v>
-      </c>
-      <c r="R7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>93</v>
-      </c>
-      <c r="R8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="H11" s="7" t="s">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>117</v>
+      </c>
+      <c r="K27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
         <v>8</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" t="s">
-        <v>132</v>
-      </c>
-      <c r="M15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" t="s">
-        <v>133</v>
-      </c>
-      <c r="M16" t="s">
-        <v>137</v>
-      </c>
-      <c r="N16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" t="s">
-        <v>134</v>
-      </c>
-      <c r="N17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="L18" t="s">
-        <v>135</v>
-      </c>
-      <c r="N18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
-        <v>316</v>
-      </c>
-      <c r="E25" t="s">
-        <v>319</v>
-      </c>
-      <c r="F25" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D26" t="s">
-        <v>318</v>
-      </c>
-      <c r="E26" t="s">
-        <v>320</v>
-      </c>
-      <c r="F26" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D28" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" t="s">
-        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2110,11 +2541,125 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B7C81B-CCF0-4973-B9ED-154735BB83D5}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="22.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>381</v>
+      </c>
+      <c r="C1">
+        <f>(B1-A1)/99</f>
+        <v>3.5454545454545454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>355</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C4" si="0">(B2-A2)/99</f>
+        <v>3.2525252525252526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>-0.32323232323232326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>-0.30303030303030304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <f>AVERAGE(B1:B4)</f>
+        <v>368</v>
+      </c>
+      <c r="C5">
+        <f>AVERAGE(C1:C4)</f>
+        <v>1.5429292929292928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>798</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>77</v>
+      </c>
+      <c r="E10">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f>A10+(B10-A10)/99*C10</f>
+        <v>301.5151515151515</v>
+      </c>
+      <c r="D12">
+        <f>(B12+D10)*E10</f>
+        <v>719.17878787878783</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3034823A-014A-402D-994F-F4A05E7ABD19}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2133,16 +2678,16 @@
         <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F1" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2150,10 +2695,10 @@
         <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2161,20 +2706,20 @@
         <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2182,21 +2727,21 @@
         <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -2204,16 +2749,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2221,10 +2766,10 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="F10" t="s">
         <v>42</v>
@@ -2240,22 +2785,22 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2265,17 +2810,17 @@
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2283,12 +2828,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21AE0FE-0550-4A50-A428-F4972BDBD2F3}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2301,18 +2846,18 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
         <v>111</v>
-      </c>
-      <c r="B1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2320,49 +2865,49 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2372,41 +2917,41 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B53968-0167-4F4F-BD4B-0794225E238B}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -2434,36 +2979,36 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="H1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -2472,27 +3017,27 @@
         <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="H2" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="I2" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="J2" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -2501,41 +3046,41 @@
         <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="J3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
       </c>
       <c r="D4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" t="s">
         <v>183</v>
       </c>
-      <c r="E4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G4" t="s">
-        <v>202</v>
-      </c>
       <c r="J4" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -2547,21 +3092,21 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2588,69 +3133,69 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" t="s">
         <v>174</v>
       </c>
-      <c r="B15" t="s">
-        <v>193</v>
-      </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2658,440 +3203,828 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F22D4E-FC21-4D0F-B535-11FE6D9F512D}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="72" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="18" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="18"/>
-    <col min="4" max="4" width="27.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="18"/>
-    <col min="7" max="7" width="15.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="28.33203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="27.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D18" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D19" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G20" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="D2" s="18" t="s">
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="18" t="s">
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="E31" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="D4" s="18" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="D5" s="18" t="s">
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC84A19-D4A7-4A92-BABE-05F233968AC8}">
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1" t="s">
+        <v>352</v>
+      </c>
+      <c r="M1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>346</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>346</v>
+      </c>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>347</v>
+      </c>
+      <c r="L4" t="s">
+        <v>353</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>347</v>
+      </c>
+      <c r="L5" t="s">
+        <v>353</v>
+      </c>
+      <c r="M5" s="57"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>348</v>
+      </c>
+      <c r="L6" t="s">
+        <v>360</v>
+      </c>
+      <c r="M6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L7" t="s">
+        <v>361</v>
+      </c>
+      <c r="M7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>354</v>
+      </c>
+      <c r="L8" t="s">
+        <v>362</v>
+      </c>
+      <c r="M8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>318</v>
+      </c>
+      <c r="J14" t="s">
+        <v>324</v>
+      </c>
+      <c r="M14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>370</v>
+      </c>
+      <c r="B15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15" t="s">
+        <v>371</v>
+      </c>
+      <c r="D15" t="s">
+        <v>380</v>
+      </c>
+      <c r="J15" t="s">
+        <v>325</v>
+      </c>
+      <c r="M15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" t="s">
+        <v>374</v>
+      </c>
+      <c r="F16" t="s">
+        <v>322</v>
+      </c>
+      <c r="J16" t="s">
+        <v>326</v>
+      </c>
+      <c r="M16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C17" t="s">
+        <v>328</v>
+      </c>
+      <c r="D17" t="s">
+        <v>378</v>
+      </c>
+      <c r="J17" t="s">
+        <v>340</v>
+      </c>
+      <c r="M17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" t="s">
+        <v>375</v>
+      </c>
+      <c r="J18" t="s">
+        <v>329</v>
+      </c>
+      <c r="M18" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>323</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="D19" t="s">
+        <v>376</v>
+      </c>
+      <c r="J19" t="s">
+        <v>330</v>
+      </c>
+      <c r="M19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" t="s">
+        <v>363</v>
+      </c>
+      <c r="D20" t="s">
+        <v>379</v>
+      </c>
+      <c r="M20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D21" t="s">
+        <v>374</v>
+      </c>
+      <c r="M21" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>298</v>
+      </c>
+      <c r="B22" t="s">
+        <v>364</v>
+      </c>
+      <c r="C22" t="s">
+        <v>366</v>
+      </c>
+      <c r="D22" t="s">
+        <v>377</v>
+      </c>
+      <c r="M22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>298</v>
+      </c>
+      <c r="B23" t="s">
+        <v>368</v>
+      </c>
+      <c r="D23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>298</v>
+      </c>
+      <c r="B24" t="s">
+        <v>365</v>
+      </c>
+      <c r="C24" t="s">
+        <v>367</v>
+      </c>
+      <c r="D24" t="s">
+        <v>377</v>
+      </c>
+      <c r="M24" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>321</v>
+      </c>
+      <c r="B26" t="s">
+        <v>388</v>
+      </c>
+      <c r="C26" t="s">
+        <v>389</v>
+      </c>
+      <c r="M26" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>321</v>
+      </c>
+      <c r="B27" t="s">
+        <v>381</v>
+      </c>
+      <c r="D27" t="s">
+        <v>382</v>
+      </c>
+      <c r="M27" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>390</v>
+      </c>
+      <c r="B28" t="s">
+        <v>391</v>
+      </c>
+      <c r="M28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>397</v>
+      </c>
+      <c r="M29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>394</v>
+      </c>
+      <c r="B30" t="s">
+        <v>384</v>
+      </c>
+      <c r="F30" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>395</v>
+      </c>
+      <c r="B32" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>387</v>
+      </c>
+      <c r="B34" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" t="s">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M4:M5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C0ED3D-E93E-4DAE-A74D-A57518398A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFFB7FD-E192-4C08-B9BD-623D9EF03CB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="3" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="410">
   <si>
     <t>Guard</t>
   </si>
@@ -318,66 +318,15 @@
     <t>Cool</t>
   </si>
   <si>
-    <t>Effect</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
     <t>Stat</t>
   </si>
   <si>
-    <t>Boost</t>
-  </si>
-  <si>
     <t>Condition</t>
   </si>
   <si>
-    <t>Chance</t>
-  </si>
-  <si>
-    <t>Drain</t>
-  </si>
-  <si>
-    <t>Instant Death</t>
-  </si>
-  <si>
-    <t>Reduce HP to 1</t>
-  </si>
-  <si>
     <t>Counter</t>
   </si>
   <si>
-    <t>Vanish into Air</t>
-  </si>
-  <si>
-    <t>Double Turn</t>
-  </si>
-  <si>
-    <t>End Turn</t>
-  </si>
-  <si>
-    <t>"Lose 12% of health and may lose next turn"</t>
-  </si>
-  <si>
-    <t>May multiply damage</t>
-  </si>
-  <si>
-    <t>User Dies</t>
-  </si>
-  <si>
-    <t>Remove Condition</t>
-  </si>
-  <si>
-    <t>Param1 (string)</t>
-  </si>
-  <si>
-    <t>Param2 (int)</t>
-  </si>
-  <si>
-    <t>May ignore Defense</t>
-  </si>
-  <si>
     <t>Dull</t>
   </si>
   <si>
@@ -1231,13 +1180,100 @@
   </si>
   <si>
     <t>Morgan</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>AddDamage</t>
+  </si>
+  <si>
+    <t>AttackWithTeammate</t>
+  </si>
+  <si>
+    <t>addDamage = 0</t>
+  </si>
+  <si>
+    <t>OHKO</t>
+  </si>
+  <si>
+    <t>Probability = 0</t>
+  </si>
+  <si>
+    <t>Probability = 10</t>
+  </si>
+  <si>
+    <t>HPDrain</t>
+  </si>
+  <si>
+    <t>Percentage = 20</t>
+  </si>
+  <si>
+    <t>Probability = 100</t>
+  </si>
+  <si>
+    <t>IgnoreDefense</t>
+  </si>
+  <si>
+    <t>IgnorePercent = 20</t>
+  </si>
+  <si>
+    <t>MultiplyDamage</t>
+  </si>
+  <si>
+    <t>Multipliers = [2.0]</t>
+  </si>
+  <si>
+    <t>Probabilites = [10]</t>
+  </si>
+  <si>
+    <t>MysticCall</t>
+  </si>
+  <si>
+    <t>EnemyNames</t>
+  </si>
+  <si>
+    <t>PPDrain</t>
+  </si>
+  <si>
+    <t>ReduceDamage</t>
+  </si>
+  <si>
+    <t>DamageReduction = 0</t>
+  </si>
+  <si>
+    <t>ReduceHPToOne</t>
+  </si>
+  <si>
+    <t>Percentage = 50</t>
+  </si>
+  <si>
+    <t>Multiplier = 1</t>
+  </si>
+  <si>
+    <t>OnTarget = true</t>
+  </si>
+  <si>
+    <t>Turns = 7</t>
+  </si>
+  <si>
+    <t>UserDies</t>
+  </si>
+  <si>
+    <t>BOLD Parameters *need* to be given, others only if the default value is not needed</t>
+  </si>
+  <si>
+    <t>Effects can be grouped</t>
+  </si>
+  <si>
+    <t>Examples:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1268,6 +1304,14 @@
     <font>
       <i/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1471,7 +1515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1542,6 +1586,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1558,6 +1604,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581261</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>162009</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AA94D1F-37C3-44F1-885D-FCB845CBBAA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8420100" y="1226820"/>
+          <a:ext cx="2720576" cy="969729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>340995</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>487852</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114378</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B578FF-DBCE-4CCA-873B-92163AFDBC4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8465820" y="2331720"/>
+          <a:ext cx="1975657" cy="906858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85917</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>72552</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41E6559-7166-4849-AAA3-8160C08D1D9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8439150" y="3324225"/>
+          <a:ext cx="2209992" cy="1863252"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>587425</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B33CD2A-4381-4566-9EC9-C714225F7A2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905625" y="5476875"/>
+          <a:ext cx="7902625" cy="685859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1881,22 +2108,22 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -1964,7 +2191,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>69</v>
@@ -1992,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>11</v>
@@ -2029,7 +2256,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>16</v>
@@ -2094,7 +2321,7 @@
         <v>33</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>36</v>
@@ -2205,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>21</v>
@@ -2214,10 +2441,10 @@
         <v>8</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="L11" s="49" t="s">
         <v>13</v>
@@ -2269,19 +2496,19 @@
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="51" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="F13" s="51" t="s">
         <v>23</v>
@@ -2292,7 +2519,7 @@
         <v>80</v>
       </c>
       <c r="J13" s="51" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="K13" s="51" t="s">
         <v>79</v>
@@ -2301,10 +2528,10 @@
         <v>79</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -2493,21 +2720,21 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="J24" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="K24" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="J25" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="K25" t="s">
         <v>90</v>
@@ -2515,7 +2742,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I26" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="K26" t="s">
         <v>39</v>
@@ -2523,10 +2750,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I27" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K27" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -2607,19 +2834,19 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="C9" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="D9" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="E9" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2678,16 +2905,16 @@
         <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2695,10 +2922,10 @@
         <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2706,20 +2933,20 @@
         <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2727,21 +2954,21 @@
         <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -2749,16 +2976,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2766,10 +2993,10 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
         <v>42</v>
@@ -2785,22 +3012,22 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2810,17 +3037,17 @@
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2830,133 +3057,210 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21AE0FE-0550-4A50-A428-F4972BDBD2F3}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="59" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>382</v>
+      </c>
+      <c r="B2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="H3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
+        <v>385</v>
+      </c>
+      <c r="B5" t="s">
+        <v>386</v>
+      </c>
+      <c r="H5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="58" t="s">
+        <v>388</v>
+      </c>
+      <c r="B8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="58" t="s">
+        <v>391</v>
+      </c>
+      <c r="B9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="58" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="58" t="s">
+        <v>396</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="58" t="s">
+        <v>398</v>
+      </c>
+      <c r="B12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="B13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B14" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>93</v>
       </c>
-      <c r="B1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>102</v>
+      <c r="B17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>403</v>
+      </c>
+      <c r="D17" t="s">
+        <v>390</v>
+      </c>
+      <c r="E17" t="s">
+        <v>404</v>
+      </c>
+      <c r="F17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>406</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="54" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2979,36 +3283,36 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E1" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
         <v>89</v>
       </c>
       <c r="I1" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="J1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -3017,27 +3321,27 @@
         <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="H2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="I2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="J2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -3049,38 +3353,38 @@
         <v>89</v>
       </c>
       <c r="I3" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="J3" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
       </c>
       <c r="D4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" t="s">
         <v>164</v>
       </c>
-      <c r="E4" t="s">
-        <v>181</v>
-      </c>
       <c r="G4" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="J4" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -3092,21 +3396,21 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3133,69 +3437,69 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E12" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
         <v>154</v>
       </c>
-      <c r="B14" t="s">
-        <v>171</v>
-      </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3223,422 +3527,422 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B4" s="3"/>
       <c r="D4" s="2" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="2" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3651,8 +3955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC84A19-D4A7-4A92-BABE-05F233968AC8}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3663,360 +3967,360 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K1" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="L1" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="M1" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K2" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="L2" s="55" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="M2" s="56" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K3" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="L3" s="55"/>
       <c r="M3" s="56"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="L4" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="M4" s="57" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K5" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="L5" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K6" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="L6" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="M6" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="K7" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="L7" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="M7" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K8" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="L8" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="M8" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="J14" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="M14" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="C15" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="D15" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="J15" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="M15" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="D16" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="F16" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="J16" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="M16" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="C17" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="D17" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="J17" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="M17" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="D18" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="J18" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="M18" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="D19" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="J19" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="M19" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C20" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="D20" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="M20" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="D21" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="M21" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="B22" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="C22" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="D22" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="M22" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="B23" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D23" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="B24" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="C24" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="D24" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="M24" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M25" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="B26" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="C26" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="M26" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="B27" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="D27" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="M27" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="B28" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="M28" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="M29" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="B30" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="F30" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="B32" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="B34" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="D37" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -4026,5 +4330,6 @@
     <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C0ED3D-E93E-4DAE-A74D-A57518398A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E9D14E-1903-43CD-80D7-C53185F1FCD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="2076" windowWidth="17280" windowHeight="9072" activeTab="4" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2964,8 +2964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B53968-0167-4F4F-BD4B-0794225E238B}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2973,7 +2973,7 @@
     <col min="1" max="1" width="18.44140625" customWidth="1"/>
     <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3651,8 +3651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC84A19-D4A7-4A92-BABE-05F233968AC8}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E9D14E-1903-43CD-80D7-C53185F1FCD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D2F6B3-073C-462B-A41E-AF51BCB886AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="2076" windowWidth="17280" windowHeight="9072" activeTab="4" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="397">
   <si>
     <t>Guard</t>
   </si>
@@ -984,12 +984,6 @@
     <t>Haunt/Curse/Condemn</t>
   </si>
   <si>
-    <t>Haunt/Curse/ Condemn</t>
-  </si>
-  <si>
-    <t>Sleep/ Delusion</t>
-  </si>
-  <si>
     <t>Curse/Haunt/Weaken/ Delude/Sleep</t>
   </si>
   <si>
@@ -1231,13 +1225,16 @@
   </si>
   <si>
     <t>Morgan</t>
+  </si>
+  <si>
+    <t>Curse/ Condemn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1267,6 +1264,13 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1471,7 +1475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1541,6 +1545,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1860,7 +1867,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2272,23 +2279,23 @@
         <v>314</v>
       </c>
       <c r="B13" s="51" t="s">
+        <v>396</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="C13" s="51" t="s">
-        <v>312</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>316</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>317</v>
-      </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="58" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
-      <c r="I13" s="51" t="s">
+      <c r="I13" s="58" t="s">
         <v>80</v>
       </c>
       <c r="J13" s="51" t="s">
@@ -2297,8 +2304,8 @@
       <c r="K13" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="L13" s="51" t="s">
-        <v>79</v>
+      <c r="L13" s="58" t="s">
+        <v>151</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>312</v>
@@ -2964,7 +2971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B53968-0167-4F4F-BD4B-0794225E238B}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -3207,8 +3214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F22D4E-FC21-4D0F-B535-11FE6D9F512D}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView zoomScale="72" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3589,21 +3596,24 @@
       <c r="A28" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>245</v>
-      </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>220</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3611,10 +3621,7 @@
         <v>221</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3663,62 +3670,62 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L2" s="55" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="M2" s="56" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L3" s="55"/>
       <c r="M3" s="56"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M4" s="57" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M5" s="57"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -3726,120 +3733,120 @@
         <v>299</v>
       </c>
       <c r="K7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B15" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15" t="s">
         <v>369</v>
       </c>
-      <c r="C15" t="s">
-        <v>371</v>
-      </c>
       <c r="D15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="M17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -3847,24 +3854,24 @@
         <v>298</v>
       </c>
       <c r="C20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -3872,16 +3879,16 @@
         <v>298</v>
       </c>
       <c r="B22" t="s">
+        <v>362</v>
+      </c>
+      <c r="C22" t="s">
         <v>364</v>
       </c>
-      <c r="C22" t="s">
-        <v>366</v>
-      </c>
       <c r="D22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M22" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -3889,10 +3896,10 @@
         <v>298</v>
       </c>
       <c r="B23" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -3900,16 +3907,16 @@
         <v>298</v>
       </c>
       <c r="B24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" t="s">
         <v>365</v>
       </c>
-      <c r="C24" t="s">
-        <v>367</v>
-      </c>
       <c r="D24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M24" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -3919,73 +3926,73 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B26" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C26" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M26" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D27" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M27" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B28" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B30" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F30" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B32" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -3995,10 +4002,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B34" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -4008,7 +4015,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -4016,7 +4023,7 @@
         <v>239</v>
       </c>
       <c r="D37" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D2F6B3-073C-462B-A41E-AF51BCB886AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7D6B3C-E5FC-4AD8-A332-DB18FCFA42CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
     <sheet name="Enemies" sheetId="5" r:id="rId6"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="568">
   <si>
     <t>Guard</t>
   </si>
@@ -1228,6 +1229,519 @@
   </si>
   <si>
     <t>Curse/ Condemn</t>
+  </si>
+  <si>
+    <t>Acid Bite is not implemented.</t>
+  </si>
+  <si>
+    <t>Rising Dragon is not implemented.</t>
+  </si>
+  <si>
+    <t>Cage is not implemented.</t>
+  </si>
+  <si>
+    <t>Stun Muscle is not implemented.</t>
+  </si>
+  <si>
+    <t>Human Hunt is not implemented.</t>
+  </si>
+  <si>
+    <t>Demon Eye is not implemented.</t>
+  </si>
+  <si>
+    <t>Rumble is not implemented.</t>
+  </si>
+  <si>
+    <t>Psy Drain is not implemented.</t>
+  </si>
+  <si>
+    <t>Angle Spike is not implemented.</t>
+  </si>
+  <si>
+    <t>Sonic Wave is not implemented.</t>
+  </si>
+  <si>
+    <t>Raging Flood is not implemented.</t>
+  </si>
+  <si>
+    <t>Triple Chomp is not implemented.</t>
+  </si>
+  <si>
+    <t>Rising Venom is not implemented.</t>
+  </si>
+  <si>
+    <t>Slaver is not implemented.</t>
+  </si>
+  <si>
+    <t>Mesmerize is not implemented.</t>
+  </si>
+  <si>
+    <t>Electric Bite is not implemented.</t>
+  </si>
+  <si>
+    <t>Fortify is not implemented.</t>
+  </si>
+  <si>
+    <t>Total Defense is not implemented.</t>
+  </si>
+  <si>
+    <t>Poison Sting is not implemented.</t>
+  </si>
+  <si>
+    <t>Threaten is not implemented.</t>
+  </si>
+  <si>
+    <t>Punish is not implemented.</t>
+  </si>
+  <si>
+    <t>Shadow Shield is not implemented.</t>
+  </si>
+  <si>
+    <t>Ice Breath is not implemented.</t>
+  </si>
+  <si>
+    <t>Undead Sword is not implemented.</t>
+  </si>
+  <si>
+    <t>Bone Charge is not implemented.</t>
+  </si>
+  <si>
+    <t>Festering Rake is not implemented.</t>
+  </si>
+  <si>
+    <t>Double Chop is not implemented.</t>
+  </si>
+  <si>
+    <t>Ally Search is not implemented.</t>
+  </si>
+  <si>
+    <t>Poison Ink is not implemented.</t>
+  </si>
+  <si>
+    <t>Decompose is not implemented.</t>
+  </si>
+  <si>
+    <t>Triple Fang is not implemented.</t>
+  </si>
+  <si>
+    <t>Wicked Howl is not implemented.</t>
+  </si>
+  <si>
+    <t>Scornful Caress is not implemented.</t>
+  </si>
+  <si>
+    <t>Chaos Upheaval is not implemented.</t>
+  </si>
+  <si>
+    <t>Darksol Gasp is not implemented.</t>
+  </si>
+  <si>
+    <t>Dark Blow is not implemented.</t>
+  </si>
+  <si>
+    <t>Fire Blessing is not implemented.</t>
+  </si>
+  <si>
+    <t>Recovery is not implemented.</t>
+  </si>
+  <si>
+    <t>Mucous Gel is not implemented.</t>
+  </si>
+  <si>
+    <t>Vital Barrage is not implemented.</t>
+  </si>
+  <si>
+    <t>Bloodcurdle is not implemented.</t>
+  </si>
+  <si>
+    <t>Cold Snap is not implemented.</t>
+  </si>
+  <si>
+    <t>Smell of Decay is not implemented.</t>
+  </si>
+  <si>
+    <t>Mystic Flame is not implemented.</t>
+  </si>
+  <si>
+    <t>Out of Order is not implemented.</t>
+  </si>
+  <si>
+    <t>Repair is not implemented.</t>
+  </si>
+  <si>
+    <t>Scary Jinx is not implemented.</t>
+  </si>
+  <si>
+    <t>Djinn Burp is not implemented.</t>
+  </si>
+  <si>
+    <t>Power Bite is not implemented.</t>
+  </si>
+  <si>
+    <t>Terrible Bite is not implemented.</t>
+  </si>
+  <si>
+    <t>Flying Attack is not implemented.</t>
+  </si>
+  <si>
+    <t>Swift Strike is not implemented.</t>
+  </si>
+  <si>
+    <t>Freebite Rush is not implemented.</t>
+  </si>
+  <si>
+    <t>Claw Frenzy is not implemented.</t>
+  </si>
+  <si>
+    <t>Blast Breath is not implemented.</t>
+  </si>
+  <si>
+    <t>Djinn Blast is not implemented.</t>
+  </si>
+  <si>
+    <t>Earth Force is not implemented.</t>
+  </si>
+  <si>
+    <t>Cruel Ruin is not implemented.</t>
+  </si>
+  <si>
+    <t>Djinn Storm is not implemented.</t>
+  </si>
+  <si>
+    <t>{{tt|Fire Breath|Fire Blessing in Golden Sun}} is not implemented.</t>
+  </si>
+  <si>
+    <t>Numbing Sting is not implemented.</t>
+  </si>
+  <si>
+    <t>Charon is not implemented.</t>
+  </si>
+  <si>
+    <t>Element Swap is not implemented.</t>
+  </si>
+  <si>
+    <t>Formina Sage is not implemented.</t>
+  </si>
+  <si>
+    <t>Crucible is not implemented.</t>
+  </si>
+  <si>
+    <t>Dark Contact is not implemented.</t>
+  </si>
+  <si>
+    <t>Truncheon Fist is not implemented.</t>
+  </si>
+  <si>
+    <t>Acid Blessing is not implemented.</t>
+  </si>
+  <si>
+    <t>Claw Slash is not implemented.</t>
+  </si>
+  <si>
+    <t>Mortal Blow is not implemented.</t>
+  </si>
+  <si>
+    <t>Regen Dance is not implemented.</t>
+  </si>
+  <si>
+    <t>Flame Breath is not implemented.</t>
+  </si>
+  <si>
+    <t>Djinnfest is not implemented.</t>
+  </si>
+  <si>
+    <t>Heat Kiss is not implemented.</t>
+  </si>
+  <si>
+    <t>Flash Punch is not implemented.</t>
+  </si>
+  <si>
+    <t>Wing Beat is not implemented.</t>
+  </si>
+  <si>
+    <t>Drag Down is not implemented.</t>
+  </si>
+  <si>
+    <t>Seething Rage is not implemented.</t>
+  </si>
+  <si>
+    <t>Outer Space is not implemented.</t>
+  </si>
+  <si>
+    <t>Evil Blessing is not implemented.</t>
+  </si>
+  <si>
+    <t>Dragon Driver is not implemented.</t>
+  </si>
+  <si>
+    <t>Drain Fang is not implemented.</t>
+  </si>
+  <si>
+    <t>Deadly Gas is not implemented.</t>
+  </si>
+  <si>
+    <t>Severe Blow is not implemented.</t>
+  </si>
+  <si>
+    <t>Consume Djinn is not implemented.</t>
+  </si>
+  <si>
+    <t>Vampiric Fang is not implemented.</t>
+  </si>
+  <si>
+    <t>Hydro Slash is not implemented.</t>
+  </si>
+  <si>
+    <t>Forcible Arm is not implemented.</t>
+  </si>
+  <si>
+    <t>Crazy Voice is not implemented.</t>
+  </si>
+  <si>
+    <t>Stunning Shriek is not implemented.</t>
+  </si>
+  <si>
+    <t>Witchlight is not implemented.</t>
+  </si>
+  <si>
+    <t>Water Blessing is not implemented.</t>
+  </si>
+  <si>
+    <t>Icy Kiss is not implemented.</t>
+  </si>
+  <si>
+    <t>Illusion Veil is not implemented.</t>
+  </si>
+  <si>
+    <t>Frostbite is not implemented.</t>
+  </si>
+  <si>
+    <t>{{tt|Death Scythe|This is the exact Death Size ability that Menardi had in Golden Sun, only with its name fixed.}} is not implemented.</t>
+  </si>
+  <si>
+    <t>Doublestep is not implemented.</t>
+  </si>
+  <si>
+    <t>Spinning Beat is not implemented.</t>
+  </si>
+  <si>
+    <t>Poison Beat is not implemented.</t>
+  </si>
+  <si>
+    <t>Cyclone Slash is not implemented.</t>
+  </si>
+  <si>
+    <t>Inspiring Speech is not implemented.</t>
+  </si>
+  <si>
+    <t>Zealous Fury is not implemented.</t>
+  </si>
+  <si>
+    <t>Dragon Spark is not implemented.</t>
+  </si>
+  <si>
+    <t>Gong of Battle is not implemented.</t>
+  </si>
+  <si>
+    <t>Pure Hatred is not implemented.</t>
+  </si>
+  <si>
+    <t>Vital Moon is not implemented.</t>
+  </si>
+  <si>
+    <t>Thorny Grave is not implemented.</t>
+  </si>
+  <si>
+    <t>Mad Spatter is not implemented.</t>
+  </si>
+  <si>
+    <t>Worms is not implemented.</t>
+  </si>
+  <si>
+    <t>Maneater is not implemented.</t>
+  </si>
+  <si>
+    <t>Onslaught is not implemented.</t>
+  </si>
+  <si>
+    <t>Electric Sting is not implemented.</t>
+  </si>
+  <si>
+    <t>Lucid Prophecy is not implemented.</t>
+  </si>
+  <si>
+    <t>Fiery Juggle is not implemented.</t>
+  </si>
+  <si>
+    <t>Sack is not implemented.</t>
+  </si>
+  <si>
+    <t>Seethe is not implemented.</t>
+  </si>
+  <si>
+    <t>Bestial Attack is not implemented.</t>
+  </si>
+  <si>
+    <t>Bosca Hit is not implemented.</t>
+  </si>
+  <si>
+    <t>Battle was reset.</t>
+  </si>
+  <si>
+    <t>Quick Slash is not implemented.</t>
+  </si>
+  <si>
+    <t>Nerve Shattering Shriek is not implemented.</t>
+  </si>
+  <si>
+    <t>Seismic Stomp is not implemented.</t>
+  </si>
+  <si>
+    <t>Stone Molt is not implemented.</t>
+  </si>
+  <si>
+    <t>Upward Blast is not implemented.</t>
+  </si>
+  <si>
+    <t>Vanish Claw is not implemented.</t>
+  </si>
+  <si>
+    <t>Formic Acid is not implemented.</t>
+  </si>
+  <si>
+    <t>Chill Breath is not implemented.</t>
+  </si>
+  <si>
+    <t>Sticky Goo is not implemented.</t>
+  </si>
+  <si>
+    <t>Speed Surge is not implemented.</t>
+  </si>
+  <si>
+    <t>Divide is not implemented.</t>
+  </si>
+  <si>
+    <t>Spasm is not implemented.</t>
+  </si>
+  <si>
+    <t>Stand Ready is not implemented.</t>
+  </si>
+  <si>
+    <t>Counterstrike is not implemented.</t>
+  </si>
+  <si>
+    <t>Counter-rush is not implemented.</t>
+  </si>
+  <si>
+    <t>Ocean Fist is not implemented.</t>
+  </si>
+  <si>
+    <t>Typhoon Blow is not implemented.</t>
+  </si>
+  <si>
+    <t>Watery Grave is not implemented.</t>
+  </si>
+  <si>
+    <t>Speed Slice is not implemented.</t>
+  </si>
+  <si>
+    <t>Spider Web is not implemented.</t>
+  </si>
+  <si>
+    <t>{{tt|Blast|The Psynergy that was renamed Starburst in Dark Dawn}} is not implemented.</t>
+  </si>
+  <si>
+    <t>Arid Blast is not implemented.</t>
+  </si>
+  <si>
+    <t>Stun Sting is not implemented.</t>
+  </si>
+  <si>
+    <t>Toxic Breath is not implemented.</t>
+  </si>
+  <si>
+    <t>Sludge Shield is not implemented.</t>
+  </si>
+  <si>
+    <t>Wolf Rush is not implemented.</t>
+  </si>
+  <si>
+    <t>Poison Flow is not implemented.</t>
+  </si>
+  <si>
+    <t>Wing Slash is not implemented.</t>
+  </si>
+  <si>
+    <t>Kill Sting is not implemented.</t>
+  </si>
+  <si>
+    <t>Bone Chiller is not implemented.</t>
+  </si>
+  <si>
+    <t>Call Skull is not implemented.</t>
+  </si>
+  <si>
+    <t>Tail Slap is not implemented.</t>
+  </si>
+  <si>
+    <t>Crush is not implemented.</t>
+  </si>
+  <si>
+    <t>Healing is not implemented.</t>
+  </si>
+  <si>
+    <t>Poison Gel is not implemented.</t>
+  </si>
+  <si>
+    <t>Stifle Shot is not implemented.</t>
+  </si>
+  <si>
+    <t>Scouting the Area is not implemented.</t>
+  </si>
+  <si>
+    <t>Wing Stroke is not implemented.</t>
+  </si>
+  <si>
+    <t>Phantom Spore is not implemented.</t>
+  </si>
+  <si>
+    <t>Sleep Spore is not implemented.</t>
+  </si>
+  <si>
+    <t>Vine Lash is not implemented.</t>
+  </si>
+  <si>
+    <t>Examine Situation is not implemented.</t>
+  </si>
+  <si>
+    <t>Tremble is not implemented.</t>
+  </si>
+  <si>
+    <t>Storm Blessing is not implemented.</t>
+  </si>
+  <si>
+    <t>{{tt|Dark Blessing|This is mis-named with the name of the actual, different Dark Blessing ability. It it is actually a lower-powered copy of Acid Blessing}} is not implemented.</t>
+  </si>
+  <si>
+    <t>Paralysis Shot is not implemented.</t>
+  </si>
+  <si>
+    <t>Beast Needle is not implemented.</t>
+  </si>
+  <si>
+    <t>Djinn Stun is not implemented.</t>
+  </si>
+  <si>
+    <t>Stun Jip is not implemented.</t>
+  </si>
+  <si>
+    <t>Buffeting Wings is not implemented.</t>
+  </si>
+  <si>
+    <t>Contain is not implemented.</t>
+  </si>
+  <si>
+    <t>Soothing Star is not implemented.</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1859,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1470,12 +1984,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1549,6 +2143,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2971,14 +3574,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B53968-0167-4F4F-BD4B-0794225E238B}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
@@ -3139,71 +3742,77 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="A11" s="59"/>
+      <c r="B11" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="61" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" s="59"/>
+      <c r="C12" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="61" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C13" s="63"/>
+      <c r="D13" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="64" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14" s="63"/>
+      <c r="E14" s="64" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" s="66"/>
+      <c r="D15" s="66" t="s">
         <v>173</v>
       </c>
+      <c r="E15" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3214,7 +3823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F22D4E-FC21-4D0F-B535-11FE6D9F512D}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+    <sheetView zoomScale="72" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -4034,4 +4643,882 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E22B74D-B8FD-400B-BAD2-C416C024FFE8}">
+  <dimension ref="A1:A172"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>498</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A172">
+    <sortCondition ref="A76"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7D6B3C-E5FC-4AD8-A332-DB18FCFA42CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51952EE-B4B2-4868-8C75-C5CE68CF6272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="566">
   <si>
     <t>Guard</t>
   </si>
@@ -55,9 +57,6 @@
     <t>Aqua Squire</t>
   </si>
   <si>
-    <t>Ragnarök</t>
-  </si>
-  <si>
     <t>Quake</t>
   </si>
   <si>
@@ -961,33 +960,12 @@
     <t>Scrapper</t>
   </si>
   <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>multiplier</t>
-  </si>
-  <si>
-    <t>extra (Djinn, Equipment, ..)</t>
-  </si>
-  <si>
     <t>Bind</t>
   </si>
   <si>
     <t>Protect</t>
   </si>
   <si>
-    <t>Haunt/Curse/Condemn</t>
-  </si>
-  <si>
-    <t>Curse/Haunt/Weaken/ Delude/Sleep</t>
-  </si>
-  <si>
     <t>Notes for Tolbi:</t>
   </si>
   <si>
@@ -1742,13 +1720,31 @@
   </si>
   <si>
     <t>Soothing Star is not implemented.</t>
+  </si>
+  <si>
+    <t>Starburst</t>
+  </si>
+  <si>
+    <t>Ragnarok</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Poison/Taint</t>
+  </si>
+  <si>
+    <t>Unlock</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1771,13 +1767,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2069,7 +2058,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2103,7 +2092,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2124,23 +2112,13 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2152,6 +2130,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2470,7 +2463,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2485,28 +2478,28 @@
     <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
     <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -2525,139 +2518,147 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>5</v>
+        <v>561</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>73</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>72</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>312</v>
+        <v>11</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>306</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>79</v>
+        <v>68</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>78</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="45" t="s">
-        <v>150</v>
+      <c r="D4" s="44" t="s">
+        <v>149</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>79</v>
+        <v>10</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>78</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>70</v>
+      <c r="A5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>69</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>151</v>
+        <v>12</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>150</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>80</v>
+        <v>24</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
@@ -2672,6 +2673,8 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
@@ -2686,235 +2689,247 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>32</v>
-      </c>
       <c r="K8" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="C9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="N9" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="40" t="s">
+      <c r="C11" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="N11" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="K11" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="46" t="s">
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
       <c r="I12" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="M12" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="N12" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
-        <v>314</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>396</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>312</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>315</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="51" t="s">
-        <v>313</v>
-      </c>
-      <c r="K13" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>312</v>
+      <c r="M12" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="53" t="s">
+        <v>560</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="53" t="s">
+        <v>562</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>307</v>
+      </c>
+      <c r="K13" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="L13" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="66" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -2930,6 +2945,8 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
@@ -2944,156 +2961,168 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>57</v>
-      </c>
       <c r="C16" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>79</v>
+        <v>28</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
-        <v>85</v>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="46" t="s">
+        <v>84</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>82</v>
+      <c r="F20" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>26</v>
+      <c r="C21" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>7</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -3101,47 +3130,47 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
+        <v>113</v>
+      </c>
+      <c r="J24" t="s">
+        <v>117</v>
+      </c>
+      <c r="K24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
         <v>114</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J25" t="s">
         <v>118</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>115</v>
+      </c>
+      <c r="K26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>116</v>
+      </c>
+      <c r="K27" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I25" t="s">
-        <v>115</v>
-      </c>
-      <c r="J25" t="s">
-        <v>119</v>
-      </c>
-      <c r="K25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I26" t="s">
-        <v>116</v>
-      </c>
-      <c r="K26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I27" t="s">
-        <v>117</v>
-      </c>
-      <c r="K27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3152,111 +3181,145 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B7C81B-CCF0-4973-B9ED-154735BB83D5}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G1" t="s">
+        <v>565</v>
+      </c>
+      <c r="J1" t="s">
+        <v>564</v>
+      </c>
+      <c r="K1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="B1">
-        <v>381</v>
-      </c>
-      <c r="C1">
-        <f>(B1-A1)/99</f>
-        <v>3.5454545454545454</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="B2">
-        <v>355</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C4" si="0">(B2-A2)/99</f>
-        <v>3.2525252525252526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>32</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>-0.32323232323232326</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>-0.30303030303030304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <f>AVERAGE(B1:B4)</f>
-        <v>368</v>
-      </c>
-      <c r="C5">
-        <f>AVERAGE(C1:C4)</f>
-        <v>1.5429292929292928</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>307</v>
-      </c>
-      <c r="B9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C9" t="s">
-        <v>309</v>
-      </c>
-      <c r="D9" t="s">
-        <v>311</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>30</v>
-      </c>
-      <c r="B10">
-        <v>798</v>
-      </c>
-      <c r="C10">
-        <v>35</v>
-      </c>
-      <c r="D10">
-        <v>77</v>
-      </c>
-      <c r="E10">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <f>A10+(B10-A10)/99*C10</f>
-        <v>301.5151515151515</v>
-      </c>
-      <c r="D12">
-        <f>(B12+D10)*E10</f>
-        <v>719.17878787878783</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3269,7 +3332,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3282,155 +3345,155 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
         <v>123</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>124</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>125</v>
-      </c>
-      <c r="F1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3456,112 +3519,112 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
         <v>110</v>
-      </c>
-      <c r="C1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
-      </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
         <v>97</v>
       </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3589,230 +3652,230 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
         <v>152</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>153</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>154</v>
       </c>
-      <c r="E1" t="s">
-        <v>155</v>
-      </c>
       <c r="H1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" t="s">
         <v>183</v>
-      </c>
-      <c r="J1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
         <v>161</v>
       </c>
-      <c r="B2" t="s">
-        <v>162</v>
-      </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" t="s">
         <v>185</v>
-      </c>
-      <c r="J2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" t="s">
         <v>166</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>167</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>168</v>
-      </c>
-      <c r="E7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
         <v>58</v>
       </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="D11" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="E11" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="61" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60" t="s">
+      <c r="B13" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="61" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="E13" s="64" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="62" t="s">
+      <c r="C14" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64" t="s">
+      <c r="B15" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" s="65" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" s="67"/>
+      <c r="E15" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3839,422 +3902,422 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4" s="3"/>
       <c r="D4" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4279,360 +4342,360 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="L1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="M1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K2" t="s">
-        <v>344</v>
-      </c>
-      <c r="L2" s="55" t="s">
-        <v>357</v>
-      </c>
-      <c r="M2" s="56" t="s">
-        <v>354</v>
+        <v>336</v>
+      </c>
+      <c r="L2" s="67" t="s">
+        <v>349</v>
+      </c>
+      <c r="M2" s="68" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K3" t="s">
-        <v>344</v>
-      </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
+        <v>336</v>
+      </c>
+      <c r="L3" s="67"/>
+      <c r="M3" s="68"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K4" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="L4" t="s">
-        <v>351</v>
-      </c>
-      <c r="M4" s="57" t="s">
-        <v>355</v>
+        <v>343</v>
+      </c>
+      <c r="M4" s="69" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K5" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="L5" t="s">
-        <v>351</v>
-      </c>
-      <c r="M5" s="57"/>
+        <v>343</v>
+      </c>
+      <c r="M5" s="69"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K6" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="L6" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="M6" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="L7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="M7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K8" t="s">
+        <v>344</v>
+      </c>
+      <c r="L8" t="s">
         <v>352</v>
       </c>
-      <c r="L8" t="s">
-        <v>360</v>
-      </c>
       <c r="M8" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="J14" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M14" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B15" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C15" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D15" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="J15" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M15" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D16" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F16" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="J16" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="M16" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C17" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D17" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="J17" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="M17" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D18" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="J18" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="M18" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>321</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>370</v>
+        <v>313</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>362</v>
       </c>
       <c r="D19" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="J19" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="M19" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C20" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D20" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="M20" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D21" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="M21" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B22" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C22" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D22" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="M22" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B23" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D23" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B24" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C24" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D24" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="M24" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B26" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C26" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="M26" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B27" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D27" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M27" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B28" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="M28" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="M29" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B30" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F30" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B32" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B34" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D37" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -4649,7 +4712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E22B74D-B8FD-400B-BAD2-C416C024FFE8}">
   <dimension ref="A1:A172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -4657,862 +4720,862 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51952EE-B4B2-4868-8C75-C5CE68CF6272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348BB68B-FDFA-4532-BB55-4252238F6CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="585">
   <si>
     <t>Guard</t>
   </si>
@@ -1738,6 +1738,63 @@
   </si>
   <si>
     <t>Upgrade</t>
+  </si>
+  <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>Unlock Summons</t>
+  </si>
+  <si>
+    <t>Use Summons</t>
+  </si>
+  <si>
+    <t>Ideas</t>
+  </si>
+  <si>
+    <t>Unlock Class Series</t>
+  </si>
+  <si>
+    <t>Unlock Djinn of an element</t>
+  </si>
+  <si>
+    <t>Use Psynergy of an element</t>
+  </si>
+  <si>
+    <t>Equip Cursed Equipment (Curse Mage)</t>
+  </si>
+  <si>
+    <t>Finish Gauntlets</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Lord</t>
+  </si>
+  <si>
+    <t>Slayer</t>
+  </si>
+  <si>
+    <t>Gallant</t>
+  </si>
+  <si>
+    <t>Wins</t>
+  </si>
+  <si>
+    <t>Wins+Streak</t>
+  </si>
+  <si>
+    <t>Matthew OR Equip Cursed</t>
+  </si>
+  <si>
+    <t>Number of Cursed Gear</t>
+  </si>
+  <si>
+    <t>Keys found</t>
+  </si>
+  <si>
+    <t>Maps Found</t>
   </si>
 </sst>
 </file>
@@ -2462,8 +2519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2B1135-77C9-499B-B6C9-9E2B30F8D34D}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:G16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3181,10 +3238,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B7C81B-CCF0-4973-B9ED-154735BB83D5}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3192,9 +3249,11 @@
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.109375" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>564</v>
       </c>
@@ -3213,30 +3272,51 @@
       <c r="K1" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N1" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>300</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
+      <c r="F2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G2" t="s">
+        <v>580</v>
+      </c>
       <c r="I2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>301</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
+      <c r="F3" t="s">
+        <v>581</v>
+      </c>
+      <c r="G3" t="s">
+        <v>582</v>
+      </c>
       <c r="I3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3246,8 +3326,11 @@
       <c r="I4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>302</v>
       </c>
@@ -3257,8 +3340,11 @@
       <c r="I5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>303</v>
       </c>
@@ -3268,43 +3354,61 @@
       <c r="I6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>304</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
+      <c r="F7" t="s">
+        <v>583</v>
+      </c>
       <c r="I7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N9" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -3312,18 +3416,74 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>305</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>575</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>578</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>576</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>577</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3887,7 +4047,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView zoomScale="72" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348BB68B-FDFA-4532-BB55-4252238F6CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEBD014-C9B3-4DE2-B820-13D96A8BD324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="599">
   <si>
     <t>Guard</t>
   </si>
@@ -1795,6 +1795,48 @@
   </si>
   <si>
     <t>Maps Found</t>
+  </si>
+  <si>
+    <t>Battles Won</t>
+  </si>
+  <si>
+    <t>Say Curse OR quote matthew</t>
+  </si>
+  <si>
+    <t>Look up classes</t>
+  </si>
+  <si>
+    <t>Look up psynergy</t>
+  </si>
+  <si>
+    <t>User commands</t>
+  </si>
+  <si>
+    <t>Have Djinn</t>
+  </si>
+  <si>
+    <t>Visit Merc LH</t>
+  </si>
+  <si>
+    <t>Unlock x Towns</t>
+  </si>
+  <si>
+    <t>Unlock x Dungeons</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Win 3 RPS</t>
+  </si>
+  <si>
+    <t>Do an 8-ball?</t>
+  </si>
+  <si>
+    <t>Unlocked Classes</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2201,6 +2243,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2517,10 +2592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2B1135-77C9-499B-B6C9-9E2B30F8D34D}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3229,6 +3304,399 @@
       <c r="K29" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="70"/>
+      <c r="B37" s="71" t="s">
+        <v>300</v>
+      </c>
+      <c r="C37" s="72" t="s">
+        <v>301</v>
+      </c>
+      <c r="D37" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="73" t="s">
+        <v>302</v>
+      </c>
+      <c r="F37" s="72" t="s">
+        <v>303</v>
+      </c>
+      <c r="G37" s="71" t="s">
+        <v>304</v>
+      </c>
+      <c r="H37" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="70" t="s">
+        <v>564</v>
+      </c>
+      <c r="B38" s="70" t="s">
+        <v>595</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>595</v>
+      </c>
+      <c r="D38" s="70" t="s">
+        <v>595</v>
+      </c>
+      <c r="E38" s="70" t="s">
+        <v>595</v>
+      </c>
+      <c r="F38" s="70" t="s">
+        <v>595</v>
+      </c>
+      <c r="G38" s="70" t="s">
+        <v>595</v>
+      </c>
+      <c r="H38" s="70" t="s">
+        <v>595</v>
+      </c>
+      <c r="I38" s="70" t="s">
+        <v>595</v>
+      </c>
+      <c r="J38" s="70" t="s">
+        <v>595</v>
+      </c>
+      <c r="K38" s="70" t="s">
+        <v>595</v>
+      </c>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="70" t="s">
+        <v>565</v>
+      </c>
+      <c r="B39" s="70" t="s">
+        <v>594</v>
+      </c>
+      <c r="C39" s="70" t="s">
+        <v>594</v>
+      </c>
+      <c r="D39" s="70" t="s">
+        <v>594</v>
+      </c>
+      <c r="E39" s="70" t="s">
+        <v>594</v>
+      </c>
+      <c r="F39" s="70" t="s">
+        <v>594</v>
+      </c>
+      <c r="G39" s="70" t="s">
+        <v>594</v>
+      </c>
+      <c r="H39" s="70" t="s">
+        <v>594</v>
+      </c>
+      <c r="I39" s="70" t="s">
+        <v>594</v>
+      </c>
+      <c r="J39" s="70" t="s">
+        <v>594</v>
+      </c>
+      <c r="K39" s="70" t="s">
+        <v>594</v>
+      </c>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="70"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
+    </row>
+    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="70"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="70"/>
+    </row>
+    <row r="42" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="70"/>
+      <c r="B42" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="77" t="s">
+        <v>305</v>
+      </c>
+      <c r="H42" s="78"/>
+      <c r="I42" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="K42" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="L42" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="M42" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="N42" s="72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="70" t="s">
+        <v>564</v>
+      </c>
+      <c r="B43" s="70" t="s">
+        <v>585</v>
+      </c>
+      <c r="C43" s="70" t="s">
+        <v>586</v>
+      </c>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70" t="s">
+        <v>587</v>
+      </c>
+      <c r="F43" s="70" t="s">
+        <v>588</v>
+      </c>
+      <c r="G43" s="70" t="s">
+        <v>589</v>
+      </c>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70" t="s">
+        <v>592</v>
+      </c>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70" t="s">
+        <v>596</v>
+      </c>
+      <c r="L43" s="70" t="s">
+        <v>591</v>
+      </c>
+      <c r="M43" s="70" t="s">
+        <v>597</v>
+      </c>
+      <c r="N43" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="70" t="s">
+        <v>565</v>
+      </c>
+      <c r="B44" s="70" t="s">
+        <v>585</v>
+      </c>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70" t="s">
+        <v>598</v>
+      </c>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70" t="s">
+        <v>590</v>
+      </c>
+      <c r="L44" s="70"/>
+      <c r="M44" s="70" t="s">
+        <v>590</v>
+      </c>
+      <c r="N44" s="70"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="70"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="70"/>
+      <c r="L45" s="70"/>
+      <c r="M45" s="70"/>
+      <c r="N45" s="70"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="70"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="70"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="70"/>
+      <c r="B47" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="80"/>
+      <c r="F47" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="70"/>
+      <c r="N47" s="70"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="70" t="s">
+        <v>564</v>
+      </c>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="70"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="70" t="s">
+        <v>565</v>
+      </c>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="70"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="70"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="70"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="70"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="70"/>
+      <c r="N51" s="70"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="70"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEBD014-C9B3-4DE2-B820-13D96A8BD324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA51A74-F97D-4447-8DE0-B0D89CE74618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="601">
   <si>
     <t>Guard</t>
   </si>
@@ -1815,35 +1815,41 @@
     <t>Have Djinn</t>
   </si>
   <si>
-    <t>Visit Merc LH</t>
-  </si>
-  <si>
     <t>Unlock x Towns</t>
   </si>
   <si>
-    <t>Unlock x Dungeons</t>
-  </si>
-  <si>
     <t>Level</t>
   </si>
   <si>
     <t>Default</t>
   </si>
   <si>
-    <t>Win 3 RPS</t>
-  </si>
-  <si>
     <t>Do an 8-ball?</t>
   </si>
   <si>
     <t>Unlocked Classes</t>
+  </si>
+  <si>
+    <t>Dungeons Completed</t>
+  </si>
+  <si>
+    <t>Win 4 RPS</t>
+  </si>
+  <si>
+    <t>Finish Merc LH</t>
+  </si>
+  <si>
+    <t>5 times in same town in a row or be on server for 30 days</t>
+  </si>
+  <si>
+    <t>Unlock x Dungeons or switch channels</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1874,6 +1880,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2157,7 +2172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2275,6 +2290,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2594,8 +2612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2B1135-77C9-499B-B6C9-9E2B30F8D34D}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2612,6 +2630,7 @@
     <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.44140625" customWidth="1"/>
     <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3347,34 +3366,34 @@
         <v>564</v>
       </c>
       <c r="B38" s="70" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C38" s="70" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D38" s="70" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E38" s="70" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F38" s="70" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G38" s="70" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H38" s="70" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I38" s="70" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J38" s="70" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K38" s="70" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="L38" s="70"/>
       <c r="M38" s="70"/>
@@ -3385,34 +3404,34 @@
         <v>565</v>
       </c>
       <c r="B39" s="70" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C39" s="70" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E39" s="70" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F39" s="70" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G39" s="70" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H39" s="70" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I39" s="70" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J39" s="70" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K39" s="70" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="L39" s="70"/>
       <c r="M39" s="70"/>
@@ -3490,69 +3509,83 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="70" t="s">
         <v>564</v>
       </c>
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="78" t="s">
         <v>585</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="78" t="s">
         <v>586</v>
       </c>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70" t="s">
+      <c r="D43" s="78" t="s">
+        <v>599</v>
+      </c>
+      <c r="E43" s="78" t="s">
         <v>587</v>
       </c>
-      <c r="F43" s="70" t="s">
+      <c r="F43" s="78" t="s">
         <v>588</v>
       </c>
-      <c r="G43" s="70" t="s">
+      <c r="G43" s="78" t="s">
         <v>589</v>
       </c>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70" t="s">
-        <v>592</v>
-      </c>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70" t="s">
-        <v>596</v>
-      </c>
-      <c r="L43" s="70" t="s">
+      <c r="H43" s="81"/>
+      <c r="I43" s="78" t="s">
         <v>591</v>
       </c>
-      <c r="M43" s="70" t="s">
+      <c r="J43" s="81"/>
+      <c r="K43" s="78" t="s">
         <v>597</v>
       </c>
-      <c r="N43" t="s">
-        <v>593</v>
+      <c r="L43" s="78" t="s">
+        <v>598</v>
+      </c>
+      <c r="M43" s="81" t="s">
+        <v>594</v>
+      </c>
+      <c r="N43" s="64" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="70" t="s">
         <v>565</v>
       </c>
-      <c r="B44" s="70" t="s">
+      <c r="B44" s="78" t="s">
         <v>585</v>
       </c>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70" t="s">
-        <v>598</v>
-      </c>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70" t="s">
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="78" t="s">
+        <v>595</v>
+      </c>
+      <c r="F44" s="78" t="s">
+        <v>595</v>
+      </c>
+      <c r="G44" s="78" t="s">
+        <v>585</v>
+      </c>
+      <c r="H44" s="81"/>
+      <c r="I44" s="78" t="s">
+        <v>596</v>
+      </c>
+      <c r="J44" s="78" t="s">
+        <v>585</v>
+      </c>
+      <c r="K44" s="78" t="s">
         <v>590</v>
       </c>
-      <c r="L44" s="70"/>
-      <c r="M44" s="70" t="s">
+      <c r="L44" s="78" t="s">
+        <v>596</v>
+      </c>
+      <c r="M44" s="78" t="s">
         <v>590</v>
       </c>
-      <c r="N44" s="70"/>
+      <c r="N44" s="78" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="70"/>

--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA51A74-F97D-4447-8DE0-B0D89CE74618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17C9C2C-B144-4496-BB4D-BDB3FC97ACF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="603">
   <si>
     <t>Guard</t>
   </si>
@@ -1843,6 +1843,12 @@
   </si>
   <si>
     <t>Unlock x Dungeons or switch channels</t>
+  </si>
+  <si>
+    <t>Write in Colosso talks</t>
+  </si>
+  <si>
+    <t>Wear cursed gear</t>
   </si>
 </sst>
 </file>
@@ -1894,7 +1900,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1958,6 +1964,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2172,7 +2184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2293,6 +2305,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2612,8 +2630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2B1135-77C9-499B-B6C9-9E2B30F8D34D}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2621,7 +2639,7 @@
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
@@ -3509,7 +3527,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="70" t="s">
         <v>564</v>
       </c>
@@ -3535,7 +3553,9 @@
       <c r="I43" s="78" t="s">
         <v>591</v>
       </c>
-      <c r="J43" s="81"/>
+      <c r="J43" s="83" t="s">
+        <v>601</v>
+      </c>
       <c r="K43" s="78" t="s">
         <v>597</v>
       </c>
@@ -3556,8 +3576,12 @@
       <c r="B44" s="78" t="s">
         <v>585</v>
       </c>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
+      <c r="C44" s="78" t="s">
+        <v>602</v>
+      </c>
+      <c r="D44" s="82" t="s">
+        <v>133</v>
+      </c>
       <c r="E44" s="78" t="s">
         <v>595</v>
       </c>

--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17C9C2C-B144-4496-BB4D-BDB3FC97ACF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A8CF49-5FBC-4A84-8A9F-25747901A0BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="606">
   <si>
     <t>Guard</t>
   </si>
@@ -1818,9 +1818,6 @@
     <t>Unlock x Towns</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
     <t>Default</t>
   </si>
   <si>
@@ -1845,10 +1842,22 @@
     <t>Unlock x Dungeons or switch channels</t>
   </si>
   <si>
-    <t>Write in Colosso talks</t>
-  </si>
-  <si>
-    <t>Wear cursed gear</t>
+    <t>Wear cursed gear on Mage Set</t>
+  </si>
+  <si>
+    <t>Days active</t>
+  </si>
+  <si>
+    <t>Write in Colosso talks, Win a PvP battle</t>
+  </si>
+  <si>
+    <t>VenusDjinn</t>
+  </si>
+  <si>
+    <t>MarsDjinn</t>
+  </si>
+  <si>
+    <t>MercuryDjinn</t>
   </si>
 </sst>
 </file>
@@ -2307,10 +2316,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2631,7 +2640,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2643,9 +2652,9 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
     <col min="11" max="11" width="12.44140625" customWidth="1"/>
     <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.21875" bestFit="1" customWidth="1"/>
@@ -3384,72 +3393,72 @@
         <v>564</v>
       </c>
       <c r="B38" s="70" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C38" s="70" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D38" s="70" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E38" s="70" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F38" s="70" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G38" s="70" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H38" s="70" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I38" s="70" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J38" s="70" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K38" s="70" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L38" s="70"/>
       <c r="M38" s="70"/>
       <c r="N38" s="70"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="70" t="s">
         <v>565</v>
       </c>
       <c r="B39" s="70" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="C39" s="70" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="E39" s="70" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="F39" s="70" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="G39" s="70" t="s">
-        <v>592</v>
+        <v>196</v>
       </c>
       <c r="H39" s="70" t="s">
-        <v>592</v>
+        <v>196</v>
       </c>
       <c r="I39" s="70" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="J39" s="70" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="K39" s="70" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="L39" s="70"/>
       <c r="M39" s="70"/>
@@ -3527,7 +3536,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="70" t="s">
         <v>564</v>
       </c>
@@ -3538,7 +3547,7 @@
         <v>586</v>
       </c>
       <c r="D43" s="78" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E43" s="78" t="s">
         <v>587</v>
@@ -3553,23 +3562,23 @@
       <c r="I43" s="78" t="s">
         <v>591</v>
       </c>
-      <c r="J43" s="83" t="s">
-        <v>601</v>
+      <c r="J43" s="82" t="s">
+        <v>602</v>
       </c>
       <c r="K43" s="78" t="s">
+        <v>596</v>
+      </c>
+      <c r="L43" s="78" t="s">
         <v>597</v>
       </c>
-      <c r="L43" s="78" t="s">
-        <v>598</v>
-      </c>
-      <c r="M43" s="81" t="s">
-        <v>594</v>
+      <c r="M43" s="78" t="s">
+        <v>593</v>
       </c>
       <c r="N43" s="64" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="70" t="s">
         <v>565</v>
       </c>
@@ -3577,23 +3586,23 @@
         <v>585</v>
       </c>
       <c r="C44" s="78" t="s">
-        <v>602</v>
-      </c>
-      <c r="D44" s="82" t="s">
-        <v>133</v>
+        <v>600</v>
+      </c>
+      <c r="D44" s="83" t="s">
+        <v>601</v>
       </c>
       <c r="E44" s="78" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F44" s="78" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G44" s="78" t="s">
         <v>585</v>
       </c>
       <c r="H44" s="81"/>
       <c r="I44" s="78" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J44" s="78" t="s">
         <v>585</v>
@@ -3602,13 +3611,13 @@
         <v>590</v>
       </c>
       <c r="L44" s="78" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M44" s="78" t="s">
         <v>590</v>
       </c>
       <c r="N44" s="78" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">

--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A8CF49-5FBC-4A84-8A9F-25747901A0BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE8AF56-C1C5-42DF-B729-A711170EB61C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="558">
   <si>
     <t>Guard</t>
   </si>
@@ -1209,42 +1209,24 @@
     <t>Curse/ Condemn</t>
   </si>
   <si>
-    <t>Acid Bite is not implemented.</t>
-  </si>
-  <si>
     <t>Rising Dragon is not implemented.</t>
   </si>
   <si>
-    <t>Cage is not implemented.</t>
-  </si>
-  <si>
     <t>Stun Muscle is not implemented.</t>
   </si>
   <si>
     <t>Human Hunt is not implemented.</t>
   </si>
   <si>
-    <t>Demon Eye is not implemented.</t>
-  </si>
-  <si>
     <t>Rumble is not implemented.</t>
   </si>
   <si>
-    <t>Psy Drain is not implemented.</t>
-  </si>
-  <si>
-    <t>Angle Spike is not implemented.</t>
-  </si>
-  <si>
     <t>Sonic Wave is not implemented.</t>
   </si>
   <si>
     <t>Raging Flood is not implemented.</t>
   </si>
   <si>
-    <t>Triple Chomp is not implemented.</t>
-  </si>
-  <si>
     <t>Rising Venom is not implemented.</t>
   </si>
   <si>
@@ -1260,51 +1242,24 @@
     <t>Fortify is not implemented.</t>
   </si>
   <si>
-    <t>Total Defense is not implemented.</t>
-  </si>
-  <si>
     <t>Poison Sting is not implemented.</t>
   </si>
   <si>
-    <t>Threaten is not implemented.</t>
-  </si>
-  <si>
     <t>Punish is not implemented.</t>
   </si>
   <si>
     <t>Shadow Shield is not implemented.</t>
   </si>
   <si>
-    <t>Ice Breath is not implemented.</t>
-  </si>
-  <si>
-    <t>Undead Sword is not implemented.</t>
-  </si>
-  <si>
-    <t>Bone Charge is not implemented.</t>
-  </si>
-  <si>
     <t>Festering Rake is not implemented.</t>
   </si>
   <si>
     <t>Double Chop is not implemented.</t>
   </si>
   <si>
-    <t>Ally Search is not implemented.</t>
-  </si>
-  <si>
     <t>Poison Ink is not implemented.</t>
   </si>
   <si>
-    <t>Decompose is not implemented.</t>
-  </si>
-  <si>
-    <t>Triple Fang is not implemented.</t>
-  </si>
-  <si>
-    <t>Wicked Howl is not implemented.</t>
-  </si>
-  <si>
     <t>Scornful Caress is not implemented.</t>
   </si>
   <si>
@@ -1326,18 +1281,12 @@
     <t>Mucous Gel is not implemented.</t>
   </si>
   <si>
-    <t>Vital Barrage is not implemented.</t>
-  </si>
-  <si>
     <t>Bloodcurdle is not implemented.</t>
   </si>
   <si>
     <t>Cold Snap is not implemented.</t>
   </si>
   <si>
-    <t>Smell of Decay is not implemented.</t>
-  </si>
-  <si>
     <t>Mystic Flame is not implemented.</t>
   </si>
   <si>
@@ -1368,12 +1317,6 @@
     <t>Freebite Rush is not implemented.</t>
   </si>
   <si>
-    <t>Claw Frenzy is not implemented.</t>
-  </si>
-  <si>
-    <t>Blast Breath is not implemented.</t>
-  </si>
-  <si>
     <t>Djinn Blast is not implemented.</t>
   </si>
   <si>
@@ -1386,9 +1329,6 @@
     <t>Djinn Storm is not implemented.</t>
   </si>
   <si>
-    <t>{{tt|Fire Breath|Fire Blessing in Golden Sun}} is not implemented.</t>
-  </si>
-  <si>
     <t>Numbing Sting is not implemented.</t>
   </si>
   <si>
@@ -1407,15 +1347,6 @@
     <t>Dark Contact is not implemented.</t>
   </si>
   <si>
-    <t>Truncheon Fist is not implemented.</t>
-  </si>
-  <si>
-    <t>Acid Blessing is not implemented.</t>
-  </si>
-  <si>
-    <t>Claw Slash is not implemented.</t>
-  </si>
-  <si>
     <t>Mortal Blow is not implemented.</t>
   </si>
   <si>
@@ -1434,9 +1365,6 @@
     <t>Flash Punch is not implemented.</t>
   </si>
   <si>
-    <t>Wing Beat is not implemented.</t>
-  </si>
-  <si>
     <t>Drag Down is not implemented.</t>
   </si>
   <si>
@@ -1449,24 +1377,12 @@
     <t>Evil Blessing is not implemented.</t>
   </si>
   <si>
-    <t>Dragon Driver is not implemented.</t>
-  </si>
-  <si>
-    <t>Drain Fang is not implemented.</t>
-  </si>
-  <si>
-    <t>Deadly Gas is not implemented.</t>
-  </si>
-  <si>
     <t>Severe Blow is not implemented.</t>
   </si>
   <si>
     <t>Consume Djinn is not implemented.</t>
   </si>
   <si>
-    <t>Vampiric Fang is not implemented.</t>
-  </si>
-  <si>
     <t>Hydro Slash is not implemented.</t>
   </si>
   <si>
@@ -1479,12 +1395,6 @@
     <t>Stunning Shriek is not implemented.</t>
   </si>
   <si>
-    <t>Witchlight is not implemented.</t>
-  </si>
-  <si>
-    <t>Water Blessing is not implemented.</t>
-  </si>
-  <si>
     <t>Icy Kiss is not implemented.</t>
   </si>
   <si>
@@ -1494,12 +1404,6 @@
     <t>Frostbite is not implemented.</t>
   </si>
   <si>
-    <t>{{tt|Death Scythe|This is the exact Death Size ability that Menardi had in Golden Sun, only with its name fixed.}} is not implemented.</t>
-  </si>
-  <si>
-    <t>Doublestep is not implemented.</t>
-  </si>
-  <si>
     <t>Spinning Beat is not implemented.</t>
   </si>
   <si>
@@ -1524,18 +1428,9 @@
     <t>Pure Hatred is not implemented.</t>
   </si>
   <si>
-    <t>Vital Moon is not implemented.</t>
-  </si>
-  <si>
-    <t>Thorny Grave is not implemented.</t>
-  </si>
-  <si>
     <t>Mad Spatter is not implemented.</t>
   </si>
   <si>
-    <t>Worms is not implemented.</t>
-  </si>
-  <si>
     <t>Maneater is not implemented.</t>
   </si>
   <si>
@@ -1557,15 +1452,6 @@
     <t>Seethe is not implemented.</t>
   </si>
   <si>
-    <t>Bestial Attack is not implemented.</t>
-  </si>
-  <si>
-    <t>Bosca Hit is not implemented.</t>
-  </si>
-  <si>
-    <t>Battle was reset.</t>
-  </si>
-  <si>
     <t>Quick Slash is not implemented.</t>
   </si>
   <si>
@@ -1581,15 +1467,6 @@
     <t>Upward Blast is not implemented.</t>
   </si>
   <si>
-    <t>Vanish Claw is not implemented.</t>
-  </si>
-  <si>
-    <t>Formic Acid is not implemented.</t>
-  </si>
-  <si>
-    <t>Chill Breath is not implemented.</t>
-  </si>
-  <si>
     <t>Sticky Goo is not implemented.</t>
   </si>
   <si>
@@ -1605,12 +1482,6 @@
     <t>Stand Ready is not implemented.</t>
   </si>
   <si>
-    <t>Counterstrike is not implemented.</t>
-  </si>
-  <si>
-    <t>Counter-rush is not implemented.</t>
-  </si>
-  <si>
     <t>Ocean Fist is not implemented.</t>
   </si>
   <si>
@@ -1626,36 +1497,21 @@
     <t>Spider Web is not implemented.</t>
   </si>
   <si>
-    <t>{{tt|Blast|The Psynergy that was renamed Starburst in Dark Dawn}} is not implemented.</t>
-  </si>
-  <si>
     <t>Arid Blast is not implemented.</t>
   </si>
   <si>
     <t>Stun Sting is not implemented.</t>
   </si>
   <si>
-    <t>Toxic Breath is not implemented.</t>
-  </si>
-  <si>
     <t>Sludge Shield is not implemented.</t>
   </si>
   <si>
-    <t>Wolf Rush is not implemented.</t>
-  </si>
-  <si>
     <t>Poison Flow is not implemented.</t>
   </si>
   <si>
-    <t>Wing Slash is not implemented.</t>
-  </si>
-  <si>
     <t>Kill Sting is not implemented.</t>
   </si>
   <si>
-    <t>Bone Chiller is not implemented.</t>
-  </si>
-  <si>
     <t>Call Skull is not implemented.</t>
   </si>
   <si>
@@ -1677,9 +1533,6 @@
     <t>Scouting the Area is not implemented.</t>
   </si>
   <si>
-    <t>Wing Stroke is not implemented.</t>
-  </si>
-  <si>
     <t>Phantom Spore is not implemented.</t>
   </si>
   <si>
@@ -1692,33 +1545,18 @@
     <t>Examine Situation is not implemented.</t>
   </si>
   <si>
-    <t>Tremble is not implemented.</t>
-  </si>
-  <si>
     <t>Storm Blessing is not implemented.</t>
   </si>
   <si>
-    <t>{{tt|Dark Blessing|This is mis-named with the name of the actual, different Dark Blessing ability. It it is actually a lower-powered copy of Acid Blessing}} is not implemented.</t>
-  </si>
-  <si>
     <t>Paralysis Shot is not implemented.</t>
   </si>
   <si>
-    <t>Beast Needle is not implemented.</t>
-  </si>
-  <si>
     <t>Djinn Stun is not implemented.</t>
   </si>
   <si>
     <t>Stun Jip is not implemented.</t>
   </si>
   <si>
-    <t>Buffeting Wings is not implemented.</t>
-  </si>
-  <si>
-    <t>Contain is not implemented.</t>
-  </si>
-  <si>
     <t>Soothing Star is not implemented.</t>
   </si>
   <si>
@@ -1858,13 +1696,31 @@
   </si>
   <si>
     <t>MercuryDjinn</t>
+  </si>
+  <si>
+    <t>Star Burst is not implemented.</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>not important yet</t>
+  </si>
+  <si>
+    <t>nope</t>
+  </si>
+  <si>
+    <t>damages PP</t>
+  </si>
+  <si>
+    <t>later</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1902,6 +1758,14 @@
     <font>
       <b/>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2193,7 +2057,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2272,15 +2136,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2322,6 +2177,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2639,7 +2504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2B1135-77C9-499B-B6C9-9E2B30F8D34D}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -2696,7 +2561,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>561</v>
+        <v>507</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>71</v>
@@ -3072,7 +2937,7 @@
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="53" t="s">
-        <v>560</v>
+        <v>506</v>
       </c>
       <c r="B13" s="49" t="s">
         <v>388</v>
@@ -3092,13 +2957,13 @@
       <c r="G13" s="49"/>
       <c r="H13" s="49"/>
       <c r="I13" s="53" t="s">
-        <v>562</v>
+        <v>508</v>
       </c>
       <c r="J13" s="53" t="s">
         <v>307</v>
       </c>
       <c r="K13" s="53" t="s">
-        <v>563</v>
+        <v>509</v>
       </c>
       <c r="L13" s="53" t="s">
         <v>150</v>
@@ -3353,416 +3218,416 @@
     </row>
     <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="70"/>
-      <c r="B37" s="71" t="s">
+      <c r="A37" s="67"/>
+      <c r="B37" s="68" t="s">
         <v>300</v>
       </c>
-      <c r="C37" s="72" t="s">
+      <c r="C37" s="69" t="s">
         <v>301</v>
       </c>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="73" t="s">
+      <c r="E37" s="70" t="s">
         <v>302</v>
       </c>
-      <c r="F37" s="72" t="s">
+      <c r="F37" s="69" t="s">
         <v>303</v>
       </c>
-      <c r="G37" s="71" t="s">
+      <c r="G37" s="68" t="s">
         <v>304</v>
       </c>
-      <c r="H37" s="72" t="s">
+      <c r="H37" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="I37" s="71" t="s">
+      <c r="I37" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="J37" s="73" t="s">
+      <c r="J37" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="K37" s="72" t="s">
+      <c r="K37" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="L37" s="70"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="70"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="70" t="s">
-        <v>564</v>
-      </c>
-      <c r="B38" s="70" t="s">
-        <v>592</v>
-      </c>
-      <c r="C38" s="70" t="s">
-        <v>592</v>
-      </c>
-      <c r="D38" s="70" t="s">
-        <v>592</v>
-      </c>
-      <c r="E38" s="70" t="s">
-        <v>592</v>
-      </c>
-      <c r="F38" s="70" t="s">
-        <v>592</v>
-      </c>
-      <c r="G38" s="70" t="s">
-        <v>592</v>
-      </c>
-      <c r="H38" s="70" t="s">
-        <v>592</v>
-      </c>
-      <c r="I38" s="70" t="s">
-        <v>592</v>
-      </c>
-      <c r="J38" s="70" t="s">
-        <v>592</v>
-      </c>
-      <c r="K38" s="70" t="s">
-        <v>592</v>
-      </c>
-      <c r="L38" s="70"/>
-      <c r="M38" s="70"/>
-      <c r="N38" s="70"/>
+      <c r="A38" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="B38" s="67" t="s">
+        <v>538</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>538</v>
+      </c>
+      <c r="D38" s="67" t="s">
+        <v>538</v>
+      </c>
+      <c r="E38" s="67" t="s">
+        <v>538</v>
+      </c>
+      <c r="F38" s="67" t="s">
+        <v>538</v>
+      </c>
+      <c r="G38" s="67" t="s">
+        <v>538</v>
+      </c>
+      <c r="H38" s="67" t="s">
+        <v>538</v>
+      </c>
+      <c r="I38" s="67" t="s">
+        <v>538</v>
+      </c>
+      <c r="J38" s="67" t="s">
+        <v>538</v>
+      </c>
+      <c r="K38" s="67" t="s">
+        <v>538</v>
+      </c>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
     </row>
     <row r="39" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="70" t="s">
-        <v>565</v>
-      </c>
-      <c r="B39" s="70" t="s">
-        <v>603</v>
-      </c>
-      <c r="C39" s="70" t="s">
-        <v>603</v>
-      </c>
-      <c r="D39" s="70" t="s">
-        <v>604</v>
-      </c>
-      <c r="E39" s="70" t="s">
-        <v>604</v>
-      </c>
-      <c r="F39" s="70" t="s">
-        <v>604</v>
-      </c>
-      <c r="G39" s="70" t="s">
+      <c r="A39" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="B39" s="67" t="s">
+        <v>549</v>
+      </c>
+      <c r="C39" s="67" t="s">
+        <v>549</v>
+      </c>
+      <c r="D39" s="67" t="s">
+        <v>550</v>
+      </c>
+      <c r="E39" s="67" t="s">
+        <v>550</v>
+      </c>
+      <c r="F39" s="67" t="s">
+        <v>550</v>
+      </c>
+      <c r="G39" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="H39" s="70" t="s">
+      <c r="H39" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="I39" s="70" t="s">
-        <v>605</v>
-      </c>
-      <c r="J39" s="70" t="s">
-        <v>605</v>
-      </c>
-      <c r="K39" s="70" t="s">
-        <v>605</v>
-      </c>
-      <c r="L39" s="70"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="70"/>
+      <c r="I39" s="67" t="s">
+        <v>551</v>
+      </c>
+      <c r="J39" s="67" t="s">
+        <v>551</v>
+      </c>
+      <c r="K39" s="67" t="s">
+        <v>551</v>
+      </c>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="67"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="70"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="70"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
     </row>
     <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="70"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="70"/>
-      <c r="N41" s="70"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
     </row>
     <row r="42" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="70"/>
-      <c r="B42" s="74" t="s">
+      <c r="A42" s="67"/>
+      <c r="B42" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="75" t="s">
+      <c r="C42" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="76" t="s">
+      <c r="D42" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="74" t="s">
+      <c r="E42" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="77" t="s">
+      <c r="F42" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="77" t="s">
+      <c r="G42" s="74" t="s">
         <v>305</v>
       </c>
-      <c r="H42" s="78"/>
-      <c r="I42" s="74" t="s">
+      <c r="H42" s="75"/>
+      <c r="I42" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="J42" s="77" t="s">
+      <c r="J42" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="K42" s="73" t="s">
+      <c r="K42" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="L42" s="72" t="s">
+      <c r="L42" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="M42" s="73" t="s">
+      <c r="M42" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="N42" s="72" t="s">
+      <c r="N42" s="69" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="70" t="s">
-        <v>564</v>
-      </c>
-      <c r="B43" s="78" t="s">
-        <v>585</v>
-      </c>
-      <c r="C43" s="78" t="s">
-        <v>586</v>
-      </c>
-      <c r="D43" s="78" t="s">
-        <v>598</v>
-      </c>
-      <c r="E43" s="78" t="s">
-        <v>587</v>
-      </c>
-      <c r="F43" s="78" t="s">
-        <v>588</v>
-      </c>
-      <c r="G43" s="78" t="s">
-        <v>589</v>
-      </c>
-      <c r="H43" s="81"/>
-      <c r="I43" s="78" t="s">
-        <v>591</v>
-      </c>
-      <c r="J43" s="82" t="s">
-        <v>602</v>
-      </c>
-      <c r="K43" s="78" t="s">
-        <v>596</v>
-      </c>
-      <c r="L43" s="78" t="s">
-        <v>597</v>
-      </c>
-      <c r="M43" s="78" t="s">
-        <v>593</v>
+      <c r="A43" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="B43" s="75" t="s">
+        <v>531</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>532</v>
+      </c>
+      <c r="D43" s="75" t="s">
+        <v>544</v>
+      </c>
+      <c r="E43" s="75" t="s">
+        <v>533</v>
+      </c>
+      <c r="F43" s="75" t="s">
+        <v>534</v>
+      </c>
+      <c r="G43" s="75" t="s">
+        <v>535</v>
+      </c>
+      <c r="H43" s="78"/>
+      <c r="I43" s="75" t="s">
+        <v>537</v>
+      </c>
+      <c r="J43" s="79" t="s">
+        <v>548</v>
+      </c>
+      <c r="K43" s="75" t="s">
+        <v>542</v>
+      </c>
+      <c r="L43" s="75" t="s">
+        <v>543</v>
+      </c>
+      <c r="M43" s="75" t="s">
+        <v>539</v>
       </c>
       <c r="N43" s="64" t="s">
-        <v>599</v>
+        <v>545</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="70" t="s">
-        <v>565</v>
-      </c>
-      <c r="B44" s="78" t="s">
-        <v>585</v>
-      </c>
-      <c r="C44" s="78" t="s">
-        <v>600</v>
-      </c>
-      <c r="D44" s="83" t="s">
-        <v>601</v>
-      </c>
-      <c r="E44" s="78" t="s">
-        <v>594</v>
-      </c>
-      <c r="F44" s="78" t="s">
-        <v>594</v>
-      </c>
-      <c r="G44" s="78" t="s">
-        <v>585</v>
-      </c>
-      <c r="H44" s="81"/>
-      <c r="I44" s="78" t="s">
-        <v>595</v>
-      </c>
-      <c r="J44" s="78" t="s">
-        <v>585</v>
-      </c>
-      <c r="K44" s="78" t="s">
-        <v>590</v>
-      </c>
-      <c r="L44" s="78" t="s">
-        <v>595</v>
-      </c>
-      <c r="M44" s="78" t="s">
-        <v>590</v>
-      </c>
-      <c r="N44" s="78" t="s">
-        <v>595</v>
+      <c r="A44" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="B44" s="75" t="s">
+        <v>531</v>
+      </c>
+      <c r="C44" s="75" t="s">
+        <v>546</v>
+      </c>
+      <c r="D44" s="80" t="s">
+        <v>547</v>
+      </c>
+      <c r="E44" s="75" t="s">
+        <v>540</v>
+      </c>
+      <c r="F44" s="75" t="s">
+        <v>540</v>
+      </c>
+      <c r="G44" s="75" t="s">
+        <v>531</v>
+      </c>
+      <c r="H44" s="78"/>
+      <c r="I44" s="75" t="s">
+        <v>541</v>
+      </c>
+      <c r="J44" s="75" t="s">
+        <v>531</v>
+      </c>
+      <c r="K44" s="75" t="s">
+        <v>536</v>
+      </c>
+      <c r="L44" s="75" t="s">
+        <v>541</v>
+      </c>
+      <c r="M44" s="75" t="s">
+        <v>536</v>
+      </c>
+      <c r="N44" s="75" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="70"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="70"/>
-      <c r="K45" s="70"/>
-      <c r="L45" s="70"/>
-      <c r="M45" s="70"/>
-      <c r="N45" s="70"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="67"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="70"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="70"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="70"/>
-      <c r="N46" s="70"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="67"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="70"/>
-      <c r="B47" s="79" t="s">
+      <c r="A47" s="67"/>
+      <c r="B47" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="79" t="s">
+      <c r="C47" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="79" t="s">
+      <c r="D47" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="E47" s="80"/>
-      <c r="F47" s="79" t="s">
+      <c r="E47" s="77"/>
+      <c r="F47" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="G47" s="79" t="s">
+      <c r="G47" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="H47" s="79" t="s">
+      <c r="H47" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="70"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="67"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="70" t="s">
-        <v>564</v>
-      </c>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="70"/>
+      <c r="A48" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="67"/>
+      <c r="N48" s="67"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="70" t="s">
-        <v>565</v>
-      </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
+      <c r="A49" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="67"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="70"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="70"/>
-      <c r="N50" s="70"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="70"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="70"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="70"/>
-      <c r="N52" s="70"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="67"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3789,25 +3654,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>564</v>
+        <v>510</v>
       </c>
       <c r="C1" t="s">
-        <v>565</v>
+        <v>511</v>
       </c>
       <c r="F1" t="s">
-        <v>564</v>
+        <v>510</v>
       </c>
       <c r="G1" t="s">
-        <v>565</v>
+        <v>511</v>
       </c>
       <c r="J1" t="s">
-        <v>564</v>
+        <v>510</v>
       </c>
       <c r="K1" t="s">
-        <v>565</v>
+        <v>511</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>569</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -3818,16 +3683,16 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>579</v>
+        <v>525</v>
       </c>
       <c r="G2" t="s">
-        <v>580</v>
+        <v>526</v>
       </c>
       <c r="I2" t="s">
         <v>55</v>
       </c>
       <c r="N2" t="s">
-        <v>566</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -3838,16 +3703,16 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>581</v>
+        <v>527</v>
       </c>
       <c r="G3" t="s">
-        <v>582</v>
+        <v>528</v>
       </c>
       <c r="I3" t="s">
         <v>56</v>
       </c>
       <c r="N3" t="s">
-        <v>567</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -3861,7 +3726,7 @@
         <v>57</v>
       </c>
       <c r="N4" t="s">
-        <v>568</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -3875,7 +3740,7 @@
         <v>58</v>
       </c>
       <c r="N5" t="s">
-        <v>570</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -3889,7 +3754,7 @@
         <v>59</v>
       </c>
       <c r="N6" t="s">
-        <v>571</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -3900,13 +3765,13 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>583</v>
+        <v>529</v>
       </c>
       <c r="I7" t="s">
         <v>60</v>
       </c>
       <c r="N7" t="s">
-        <v>572</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -3917,7 +3782,7 @@
         <v>47</v>
       </c>
       <c r="N8" t="s">
-        <v>573</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -3928,7 +3793,7 @@
         <v>52</v>
       </c>
       <c r="N9" t="s">
-        <v>574</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -3939,7 +3804,7 @@
         <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>584</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -3973,7 +3838,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>575</v>
+        <v>521</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -3984,7 +3849,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>578</v>
+        <v>524</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -3995,7 +3860,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>576</v>
+        <v>522</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -4006,7 +3871,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>577</v>
+        <v>523</v>
       </c>
       <c r="B22">
         <v>40</v>
@@ -5049,10 +4914,10 @@
       <c r="K2" t="s">
         <v>336</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="81" t="s">
         <v>349</v>
       </c>
-      <c r="M2" s="68" t="s">
+      <c r="M2" s="82" t="s">
         <v>346</v>
       </c>
     </row>
@@ -5060,8 +4925,8 @@
       <c r="K3" t="s">
         <v>336</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="82"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K4" t="s">
@@ -5070,7 +4935,7 @@
       <c r="L4" t="s">
         <v>343</v>
       </c>
-      <c r="M4" s="69" t="s">
+      <c r="M4" s="83" t="s">
         <v>347</v>
       </c>
     </row>
@@ -5081,7 +4946,7 @@
       <c r="L5" t="s">
         <v>343</v>
       </c>
-      <c r="M5" s="69"/>
+      <c r="M5" s="83"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K6" t="s">
@@ -5404,292 +5269,320 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E22B74D-B8FD-400B-BAD2-C416C024FFE8}">
-  <dimension ref="A1:A172"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="84"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+      <c r="E2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="84"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>414</v>
+      </c>
+      <c r="E8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>449</v>
+      </c>
+      <c r="E12" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>433</v>
+      </c>
+      <c r="E13" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>427</v>
+      </c>
+      <c r="E14" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>492</v>
+      </c>
+      <c r="E15" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>456</v>
+      </c>
+      <c r="E16" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>409</v>
+      </c>
+      <c r="E17" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>434</v>
+      </c>
+      <c r="E18" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>408</v>
+      </c>
+      <c r="E19" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>477</v>
+      </c>
+      <c r="E23" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>425</v>
+      </c>
+      <c r="E24" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>419</v>
+      </c>
+      <c r="E25" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>428</v>
+      </c>
+      <c r="E26" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>503</v>
+      </c>
+      <c r="E27" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>438</v>
+      </c>
+      <c r="E28" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>404</v>
+      </c>
+      <c r="E29" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>441</v>
+      </c>
+      <c r="E31" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>459</v>
+      </c>
+      <c r="E33" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>485</v>
+        <v>399</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>500</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
@@ -5699,583 +5592,364 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>549</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>414</v>
+        <v>489</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>425</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>463</v>
+        <v>397</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>476</v>
+        <v>412</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>514</v>
+        <v>415</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>441</v>
+        <v>480</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>492</v>
+        <v>416</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>541</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>393</v>
+        <v>497</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>411</v>
+        <v>488</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>482</v>
+        <v>405</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>489</v>
+        <v>400</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>536</v>
+        <v>420</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>501</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>458</v>
+        <v>411</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>509</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>449</v>
+        <v>395</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>523</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>467</v>
+        <v>406</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>553</v>
+        <v>496</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>553</v>
+        <v>469</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>546</v>
+        <v>442</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>534</v>
+        <v>445</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>542</v>
+        <v>402</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>407</v>
+        <v>498</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>409</v>
+        <v>505</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>399</v>
+        <v>476</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>426</v>
+        <v>484</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>390</v>
+        <v>552</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>401</v>
+        <v>475</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>395</v>
+        <v>495</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>435</v>
+        <v>501</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>421</v>
+        <v>504</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>544</v>
+        <v>390</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>510</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>402</v>
+        <v>481</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>547</v>
+        <v>474</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>532</v>
+        <v>499</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A172">
-    <sortCondition ref="A76"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A128">
+    <sortCondition ref="A128"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE8AF56-C1C5-42DF-B729-A711170EB61C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB8683A-0F28-48C6-A6F1-BE186C6DE8F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="506">
   <si>
     <t>Guard</t>
   </si>
@@ -1215,36 +1215,12 @@
     <t>Stun Muscle is not implemented.</t>
   </si>
   <si>
-    <t>Human Hunt is not implemented.</t>
-  </si>
-  <si>
-    <t>Rumble is not implemented.</t>
-  </si>
-  <si>
     <t>Sonic Wave is not implemented.</t>
   </si>
   <si>
-    <t>Raging Flood is not implemented.</t>
-  </si>
-  <si>
-    <t>Rising Venom is not implemented.</t>
-  </si>
-  <si>
-    <t>Slaver is not implemented.</t>
-  </si>
-  <si>
     <t>Mesmerize is not implemented.</t>
   </si>
   <si>
-    <t>Electric Bite is not implemented.</t>
-  </si>
-  <si>
-    <t>Fortify is not implemented.</t>
-  </si>
-  <si>
-    <t>Poison Sting is not implemented.</t>
-  </si>
-  <si>
     <t>Punish is not implemented.</t>
   </si>
   <si>
@@ -1257,9 +1233,6 @@
     <t>Double Chop is not implemented.</t>
   </si>
   <si>
-    <t>Poison Ink is not implemented.</t>
-  </si>
-  <si>
     <t>Scornful Caress is not implemented.</t>
   </si>
   <si>
@@ -1275,21 +1248,12 @@
     <t>Fire Blessing is not implemented.</t>
   </si>
   <si>
-    <t>Recovery is not implemented.</t>
-  </si>
-  <si>
-    <t>Mucous Gel is not implemented.</t>
-  </si>
-  <si>
     <t>Bloodcurdle is not implemented.</t>
   </si>
   <si>
     <t>Cold Snap is not implemented.</t>
   </si>
   <si>
-    <t>Mystic Flame is not implemented.</t>
-  </si>
-  <si>
     <t>Out of Order is not implemented.</t>
   </si>
   <si>
@@ -1302,93 +1266,45 @@
     <t>Djinn Burp is not implemented.</t>
   </si>
   <si>
-    <t>Power Bite is not implemented.</t>
-  </si>
-  <si>
     <t>Terrible Bite is not implemented.</t>
   </si>
   <si>
-    <t>Flying Attack is not implemented.</t>
-  </si>
-  <si>
     <t>Swift Strike is not implemented.</t>
   </si>
   <si>
-    <t>Freebite Rush is not implemented.</t>
-  </si>
-  <si>
     <t>Djinn Blast is not implemented.</t>
   </si>
   <si>
-    <t>Earth Force is not implemented.</t>
-  </si>
-  <si>
     <t>Cruel Ruin is not implemented.</t>
   </si>
   <si>
     <t>Djinn Storm is not implemented.</t>
   </si>
   <si>
-    <t>Numbing Sting is not implemented.</t>
-  </si>
-  <si>
     <t>Charon is not implemented.</t>
   </si>
   <si>
     <t>Element Swap is not implemented.</t>
   </si>
   <si>
-    <t>Formina Sage is not implemented.</t>
-  </si>
-  <si>
     <t>Crucible is not implemented.</t>
   </si>
   <si>
     <t>Dark Contact is not implemented.</t>
   </si>
   <si>
-    <t>Mortal Blow is not implemented.</t>
-  </si>
-  <si>
-    <t>Regen Dance is not implemented.</t>
-  </si>
-  <si>
-    <t>Flame Breath is not implemented.</t>
-  </si>
-  <si>
     <t>Djinnfest is not implemented.</t>
   </si>
   <si>
-    <t>Heat Kiss is not implemented.</t>
-  </si>
-  <si>
-    <t>Flash Punch is not implemented.</t>
-  </si>
-  <si>
     <t>Drag Down is not implemented.</t>
   </si>
   <si>
     <t>Seething Rage is not implemented.</t>
   </si>
   <si>
-    <t>Outer Space is not implemented.</t>
-  </si>
-  <si>
-    <t>Evil Blessing is not implemented.</t>
-  </si>
-  <si>
-    <t>Severe Blow is not implemented.</t>
-  </si>
-  <si>
     <t>Consume Djinn is not implemented.</t>
   </si>
   <si>
-    <t>Hydro Slash is not implemented.</t>
-  </si>
-  <si>
-    <t>Forcible Arm is not implemented.</t>
-  </si>
-  <si>
     <t>Crazy Voice is not implemented.</t>
   </si>
   <si>
@@ -1404,12 +1320,6 @@
     <t>Frostbite is not implemented.</t>
   </si>
   <si>
-    <t>Spinning Beat is not implemented.</t>
-  </si>
-  <si>
-    <t>Poison Beat is not implemented.</t>
-  </si>
-  <si>
     <t>Cyclone Slash is not implemented.</t>
   </si>
   <si>
@@ -1428,33 +1338,15 @@
     <t>Pure Hatred is not implemented.</t>
   </si>
   <si>
-    <t>Mad Spatter is not implemented.</t>
-  </si>
-  <si>
-    <t>Maneater is not implemented.</t>
-  </si>
-  <si>
-    <t>Onslaught is not implemented.</t>
-  </si>
-  <si>
     <t>Electric Sting is not implemented.</t>
   </si>
   <si>
-    <t>Lucid Prophecy is not implemented.</t>
-  </si>
-  <si>
     <t>Fiery Juggle is not implemented.</t>
   </si>
   <si>
-    <t>Sack is not implemented.</t>
-  </si>
-  <si>
     <t>Seethe is not implemented.</t>
   </si>
   <si>
-    <t>Quick Slash is not implemented.</t>
-  </si>
-  <si>
     <t>Nerve Shattering Shriek is not implemented.</t>
   </si>
   <si>
@@ -1467,36 +1359,15 @@
     <t>Upward Blast is not implemented.</t>
   </si>
   <si>
-    <t>Sticky Goo is not implemented.</t>
-  </si>
-  <si>
     <t>Speed Surge is not implemented.</t>
   </si>
   <si>
     <t>Divide is not implemented.</t>
   </si>
   <si>
-    <t>Spasm is not implemented.</t>
-  </si>
-  <si>
-    <t>Stand Ready is not implemented.</t>
-  </si>
-  <si>
-    <t>Ocean Fist is not implemented.</t>
-  </si>
-  <si>
-    <t>Typhoon Blow is not implemented.</t>
-  </si>
-  <si>
-    <t>Watery Grave is not implemented.</t>
-  </si>
-  <si>
     <t>Speed Slice is not implemented.</t>
   </si>
   <si>
-    <t>Spider Web is not implemented.</t>
-  </si>
-  <si>
     <t>Arid Blast is not implemented.</t>
   </si>
   <si>
@@ -1509,9 +1380,6 @@
     <t>Poison Flow is not implemented.</t>
   </si>
   <si>
-    <t>Kill Sting is not implemented.</t>
-  </si>
-  <si>
     <t>Call Skull is not implemented.</t>
   </si>
   <si>
@@ -1524,9 +1392,6 @@
     <t>Healing is not implemented.</t>
   </si>
   <si>
-    <t>Poison Gel is not implemented.</t>
-  </si>
-  <si>
     <t>Stifle Shot is not implemented.</t>
   </si>
   <si>
@@ -1545,9 +1410,6 @@
     <t>Examine Situation is not implemented.</t>
   </si>
   <si>
-    <t>Storm Blessing is not implemented.</t>
-  </si>
-  <si>
     <t>Paralysis Shot is not implemented.</t>
   </si>
   <si>
@@ -1557,9 +1419,6 @@
     <t>Stun Jip is not implemented.</t>
   </si>
   <si>
-    <t>Soothing Star is not implemented.</t>
-  </si>
-  <si>
     <t>Starburst</t>
   </si>
   <si>
@@ -1699,28 +1558,13 @@
   </si>
   <si>
     <t>Star Burst is not implemented.</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>not important yet</t>
-  </si>
-  <si>
-    <t>nope</t>
-  </si>
-  <si>
-    <t>damages PP</t>
-  </si>
-  <si>
-    <t>later</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1758,14 +1602,6 @@
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2057,7 +1893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2186,7 +2022,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2561,7 +2396,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>507</v>
+        <v>460</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>71</v>
@@ -2937,7 +2772,7 @@
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="53" t="s">
-        <v>506</v>
+        <v>459</v>
       </c>
       <c r="B13" s="49" t="s">
         <v>388</v>
@@ -2957,13 +2792,13 @@
       <c r="G13" s="49"/>
       <c r="H13" s="49"/>
       <c r="I13" s="53" t="s">
-        <v>508</v>
+        <v>461</v>
       </c>
       <c r="J13" s="53" t="s">
         <v>307</v>
       </c>
       <c r="K13" s="53" t="s">
-        <v>509</v>
+        <v>462</v>
       </c>
       <c r="L13" s="53" t="s">
         <v>150</v>
@@ -3255,37 +3090,37 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="67" t="s">
-        <v>510</v>
+        <v>463</v>
       </c>
       <c r="B38" s="67" t="s">
-        <v>538</v>
+        <v>491</v>
       </c>
       <c r="C38" s="67" t="s">
-        <v>538</v>
+        <v>491</v>
       </c>
       <c r="D38" s="67" t="s">
-        <v>538</v>
+        <v>491</v>
       </c>
       <c r="E38" s="67" t="s">
-        <v>538</v>
+        <v>491</v>
       </c>
       <c r="F38" s="67" t="s">
-        <v>538</v>
+        <v>491</v>
       </c>
       <c r="G38" s="67" t="s">
-        <v>538</v>
+        <v>491</v>
       </c>
       <c r="H38" s="67" t="s">
-        <v>538</v>
+        <v>491</v>
       </c>
       <c r="I38" s="67" t="s">
-        <v>538</v>
+        <v>491</v>
       </c>
       <c r="J38" s="67" t="s">
-        <v>538</v>
+        <v>491</v>
       </c>
       <c r="K38" s="67" t="s">
-        <v>538</v>
+        <v>491</v>
       </c>
       <c r="L38" s="67"/>
       <c r="M38" s="67"/>
@@ -3293,22 +3128,22 @@
     </row>
     <row r="39" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="67" t="s">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="B39" s="67" t="s">
-        <v>549</v>
+        <v>502</v>
       </c>
       <c r="C39" s="67" t="s">
-        <v>549</v>
+        <v>502</v>
       </c>
       <c r="D39" s="67" t="s">
-        <v>550</v>
+        <v>503</v>
       </c>
       <c r="E39" s="67" t="s">
-        <v>550</v>
+        <v>503</v>
       </c>
       <c r="F39" s="67" t="s">
-        <v>550</v>
+        <v>503</v>
       </c>
       <c r="G39" s="67" t="s">
         <v>196</v>
@@ -3317,13 +3152,13 @@
         <v>196</v>
       </c>
       <c r="I39" s="67" t="s">
-        <v>551</v>
+        <v>504</v>
       </c>
       <c r="J39" s="67" t="s">
-        <v>551</v>
+        <v>504</v>
       </c>
       <c r="K39" s="67" t="s">
-        <v>551</v>
+        <v>504</v>
       </c>
       <c r="L39" s="67"/>
       <c r="M39" s="67"/>
@@ -3403,86 +3238,86 @@
     </row>
     <row r="43" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="67" t="s">
-        <v>510</v>
+        <v>463</v>
       </c>
       <c r="B43" s="75" t="s">
-        <v>531</v>
+        <v>484</v>
       </c>
       <c r="C43" s="75" t="s">
-        <v>532</v>
+        <v>485</v>
       </c>
       <c r="D43" s="75" t="s">
-        <v>544</v>
+        <v>497</v>
       </c>
       <c r="E43" s="75" t="s">
-        <v>533</v>
+        <v>486</v>
       </c>
       <c r="F43" s="75" t="s">
-        <v>534</v>
+        <v>487</v>
       </c>
       <c r="G43" s="75" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="H43" s="78"/>
       <c r="I43" s="75" t="s">
-        <v>537</v>
+        <v>490</v>
       </c>
       <c r="J43" s="79" t="s">
-        <v>548</v>
+        <v>501</v>
       </c>
       <c r="K43" s="75" t="s">
-        <v>542</v>
+        <v>495</v>
       </c>
       <c r="L43" s="75" t="s">
-        <v>543</v>
+        <v>496</v>
       </c>
       <c r="M43" s="75" t="s">
-        <v>539</v>
+        <v>492</v>
       </c>
       <c r="N43" s="64" t="s">
-        <v>545</v>
+        <v>498</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="67" t="s">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="B44" s="75" t="s">
-        <v>531</v>
+        <v>484</v>
       </c>
       <c r="C44" s="75" t="s">
-        <v>546</v>
+        <v>499</v>
       </c>
       <c r="D44" s="80" t="s">
-        <v>547</v>
+        <v>500</v>
       </c>
       <c r="E44" s="75" t="s">
-        <v>540</v>
+        <v>493</v>
       </c>
       <c r="F44" s="75" t="s">
-        <v>540</v>
+        <v>493</v>
       </c>
       <c r="G44" s="75" t="s">
-        <v>531</v>
+        <v>484</v>
       </c>
       <c r="H44" s="78"/>
       <c r="I44" s="75" t="s">
-        <v>541</v>
+        <v>494</v>
       </c>
       <c r="J44" s="75" t="s">
-        <v>531</v>
+        <v>484</v>
       </c>
       <c r="K44" s="75" t="s">
-        <v>536</v>
+        <v>489</v>
       </c>
       <c r="L44" s="75" t="s">
-        <v>541</v>
+        <v>494</v>
       </c>
       <c r="M44" s="75" t="s">
-        <v>536</v>
+        <v>489</v>
       </c>
       <c r="N44" s="75" t="s">
-        <v>541</v>
+        <v>494</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -3547,7 +3382,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="67" t="s">
-        <v>510</v>
+        <v>463</v>
       </c>
       <c r="B48" s="67"/>
       <c r="C48" s="67"/>
@@ -3565,7 +3400,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="67" t="s">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="B49" s="67"/>
       <c r="C49" s="67"/>
@@ -3654,25 +3489,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>510</v>
+        <v>463</v>
       </c>
       <c r="C1" t="s">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="F1" t="s">
-        <v>510</v>
+        <v>463</v>
       </c>
       <c r="G1" t="s">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="J1" t="s">
-        <v>510</v>
+        <v>463</v>
       </c>
       <c r="K1" t="s">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>515</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -3683,16 +3518,16 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>525</v>
+        <v>478</v>
       </c>
       <c r="G2" t="s">
-        <v>526</v>
+        <v>479</v>
       </c>
       <c r="I2" t="s">
         <v>55</v>
       </c>
       <c r="N2" t="s">
-        <v>512</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -3703,16 +3538,16 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="G3" t="s">
-        <v>528</v>
+        <v>481</v>
       </c>
       <c r="I3" t="s">
         <v>56</v>
       </c>
       <c r="N3" t="s">
-        <v>513</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -3726,7 +3561,7 @@
         <v>57</v>
       </c>
       <c r="N4" t="s">
-        <v>514</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -3740,7 +3575,7 @@
         <v>58</v>
       </c>
       <c r="N5" t="s">
-        <v>516</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -3754,7 +3589,7 @@
         <v>59</v>
       </c>
       <c r="N6" t="s">
-        <v>517</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -3765,13 +3600,13 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>529</v>
+        <v>482</v>
       </c>
       <c r="I7" t="s">
         <v>60</v>
       </c>
       <c r="N7" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -3782,7 +3617,7 @@
         <v>47</v>
       </c>
       <c r="N8" t="s">
-        <v>519</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -3793,7 +3628,7 @@
         <v>52</v>
       </c>
       <c r="N9" t="s">
-        <v>520</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -3804,7 +3639,7 @@
         <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>530</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -3838,7 +3673,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>521</v>
+        <v>474</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -3849,7 +3684,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>524</v>
+        <v>477</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -3860,7 +3695,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>522</v>
+        <v>475</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -3871,7 +3706,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>523</v>
+        <v>476</v>
       </c>
       <c r="B22">
         <v>40</v>
@@ -5269,686 +5104,374 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E22B74D-B8FD-400B-BAD2-C416C024FFE8}">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:A71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="84"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>485</v>
-      </c>
-      <c r="E2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>413</v>
       </c>
-      <c r="E3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="84"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>490</v>
-      </c>
-      <c r="E5" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>407</v>
       </c>
-      <c r="E6" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>430</v>
       </c>
-      <c r="E7" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>414</v>
-      </c>
-      <c r="E8" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>446</v>
-      </c>
-      <c r="E9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>449</v>
       </c>
-      <c r="E12" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>433</v>
-      </c>
-      <c r="E13" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>427</v>
       </c>
-      <c r="E14" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>492</v>
-      </c>
-      <c r="E15" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>456</v>
       </c>
-      <c r="E16" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>409</v>
-      </c>
-      <c r="E17" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>434</v>
-      </c>
-      <c r="E18" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>408</v>
-      </c>
-      <c r="E19" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>477</v>
-      </c>
-      <c r="E23" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>425</v>
-      </c>
-      <c r="E24" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>419</v>
-      </c>
-      <c r="E25" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>428</v>
-      </c>
-      <c r="E26" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>503</v>
-      </c>
-      <c r="E27" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>438</v>
-      </c>
-      <c r="E28" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>404</v>
-      </c>
-      <c r="E29" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>441</v>
-      </c>
-      <c r="E31" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>459</v>
-      </c>
-      <c r="E33" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>493</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>447</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>463</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>471</v>
+        <v>408</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A128">
-    <sortCondition ref="A128"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A127">
+    <sortCondition ref="A127"/>
   </sortState>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB8683A-0F28-48C6-A6F1-BE186C6DE8F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEF0530-0F9A-4ADC-A6A7-9DEDC36A4367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet6" sheetId="7" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
-    <sheet name="Enemies" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="Enemies" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="547">
   <si>
     <t>Guard</t>
   </si>
@@ -90,9 +91,6 @@
     <t>Breeze</t>
   </si>
   <si>
-    <t>Whirlwind</t>
-  </si>
-  <si>
     <t>Plasma</t>
   </si>
   <si>
@@ -417,9 +415,6 @@
     <t>Proxian</t>
   </si>
   <si>
-    <t>Bird People</t>
-  </si>
-  <si>
     <t>Dragon Brood</t>
   </si>
   <si>
@@ -474,9 +469,6 @@
     <t>Resist(?)</t>
   </si>
   <si>
-    <t>Emu/Harpy/Gryphon</t>
-  </si>
-  <si>
     <t>Undead</t>
   </si>
   <si>
@@ -1558,6 +1550,138 @@
   </si>
   <si>
     <t>Star Burst is not implemented.</t>
+  </si>
+  <si>
+    <t>Tamer:</t>
+  </si>
+  <si>
+    <t>Wild Wolf</t>
+  </si>
+  <si>
+    <t>Salamander</t>
+  </si>
+  <si>
+    <t>Emu</t>
+  </si>
+  <si>
+    <t>Roc</t>
+  </si>
+  <si>
+    <t>Pixie</t>
+  </si>
+  <si>
+    <t>Cerberus</t>
+  </si>
+  <si>
+    <t>Harpy</t>
+  </si>
+  <si>
+    <t>Wyvern</t>
+  </si>
+  <si>
+    <t>Grand Golem</t>
+  </si>
+  <si>
+    <t>Dinox</t>
+  </si>
+  <si>
+    <t>Feary</t>
+  </si>
+  <si>
+    <t>Chimera</t>
+  </si>
+  <si>
+    <t>Gryphon</t>
+  </si>
+  <si>
+    <t>Lich</t>
+  </si>
+  <si>
+    <t>Troll</t>
+  </si>
+  <si>
+    <t>Weird Nymph</t>
+  </si>
+  <si>
+    <t>Macetail</t>
+  </si>
+  <si>
+    <t>Estre Wood</t>
+  </si>
+  <si>
+    <t>Minotaur</t>
+  </si>
+  <si>
+    <t>Succubus</t>
+  </si>
+  <si>
+    <t>Ghost Soldier</t>
+  </si>
+  <si>
+    <t>To Medium/Necro</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Fear Puppet</t>
+  </si>
+  <si>
+    <t>Trainer</t>
+  </si>
+  <si>
+    <t>Beastkeeper</t>
+  </si>
+  <si>
+    <t>Beastlord</t>
+  </si>
+  <si>
+    <t>Draconian</t>
+  </si>
+  <si>
+    <t>Draco Brood</t>
+  </si>
+  <si>
+    <t>Draco Brave</t>
+  </si>
+  <si>
+    <t>Draco Baron</t>
+  </si>
+  <si>
+    <t>Reigning Dragon</t>
+  </si>
+  <si>
+    <t>Slaying Dragon</t>
+  </si>
+  <si>
+    <t>Serpent Fume</t>
+  </si>
+  <si>
+    <t>Dragon Fume</t>
+  </si>
+  <si>
+    <t>Medium Rare</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Lurecaps</t>
+  </si>
+  <si>
+    <t>Rounds</t>
   </si>
 </sst>
 </file>
@@ -2040,6 +2164,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333223</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{426AC10E-2435-49D3-9C05-DA2039FF3864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11779624" y="3083859"/>
+          <a:ext cx="2126164" cy="4397121"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2339,8 +2512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2B1135-77C9-499B-B6C9-9E2B30F8D34D}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2362,22 +2535,22 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -2396,10 +2569,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>8</v>
@@ -2411,19 +2584,19 @@
         <v>13</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -2435,7 +2608,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>9</v>
@@ -2447,19 +2620,19 @@
         <v>11</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -2477,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>10</v>
@@ -2486,16 +2659,16 @@
         <v>14</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -2510,28 +2683,28 @@
         <v>7</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -2572,130 +2745,130 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>30</v>
-      </c>
       <c r="C8" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G8" s="64"/>
       <c r="H8" s="64"/>
       <c r="I8" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="64"/>
       <c r="H9" s="64"/>
       <c r="I9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L9" s="63" t="s">
         <v>11</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="64"/>
       <c r="H10" s="64"/>
       <c r="I10" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="M10" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>14</v>
@@ -2704,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="64"/>
@@ -2715,10 +2888,10 @@
         <v>7</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L11" s="48" t="s">
         <v>12</v>
@@ -2727,7 +2900,7 @@
         <v>15</v>
       </c>
       <c r="N11" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2735,33 +2908,33 @@
         <v>7</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="43" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="64"/>
       <c r="H12" s="64"/>
       <c r="I12" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12" s="36" t="s">
         <v>7</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M12" s="36" t="s">
         <v>7</v>
@@ -2772,42 +2945,42 @@
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="53" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="53" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="49"/>
       <c r="H13" s="49"/>
       <c r="I13" s="53" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K13" s="53" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L13" s="53" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M13" s="66" t="s">
         <v>6</v>
       </c>
       <c r="N13" s="66" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -2844,23 +3017,23 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>56</v>
-      </c>
       <c r="C16" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -2872,23 +3045,23 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -2900,23 +3073,23 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -2928,23 +3101,23 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -2956,20 +3129,20 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>6</v>
@@ -2984,17 +3157,17 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>86</v>
-      </c>
       <c r="C21" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" s="38" t="s">
         <v>7</v>
@@ -3008,69 +3181,26 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I24" t="s">
-        <v>113</v>
-      </c>
-      <c r="J24" t="s">
-        <v>117</v>
-      </c>
-      <c r="K24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J25" t="s">
-        <v>118</v>
-      </c>
-      <c r="K25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I26" t="s">
-        <v>115</v>
-      </c>
-      <c r="K26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I27" t="s">
-        <v>116</v>
-      </c>
-      <c r="K27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K29" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="67"/>
       <c r="B37" s="68" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C37" s="69" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D37" s="68" t="s">
         <v>0</v>
       </c>
       <c r="E37" s="70" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F37" s="69" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H37" s="69" t="s">
         <v>1</v>
@@ -3090,37 +3220,37 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="67" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B38" s="67" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C38" s="67" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D38" s="67" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E38" s="67" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F38" s="67" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G38" s="67" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H38" s="67" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I38" s="67" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J38" s="67" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="K38" s="67" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="L38" s="67"/>
       <c r="M38" s="67"/>
@@ -3128,37 +3258,37 @@
     </row>
     <row r="39" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="67" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B39" s="67" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C39" s="67" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D39" s="67" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E39" s="67" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F39" s="67" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G39" s="67" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H39" s="67" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I39" s="67" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J39" s="67" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K39" s="67" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="L39" s="67"/>
       <c r="M39" s="67"/>
@@ -3199,125 +3329,125 @@
     <row r="42" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="67"/>
       <c r="B42" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="72" t="s">
-        <v>30</v>
-      </c>
       <c r="D42" s="73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E42" s="71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F42" s="74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G42" s="74" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H42" s="75"/>
       <c r="I42" s="71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J42" s="74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K42" s="70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L42" s="69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M42" s="70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N42" s="69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="67" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B43" s="75" t="s">
+        <v>481</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>482</v>
+      </c>
+      <c r="D43" s="75" t="s">
+        <v>494</v>
+      </c>
+      <c r="E43" s="75" t="s">
+        <v>483</v>
+      </c>
+      <c r="F43" s="75" t="s">
         <v>484</v>
       </c>
-      <c r="C43" s="75" t="s">
+      <c r="G43" s="75" t="s">
         <v>485</v>
-      </c>
-      <c r="D43" s="75" t="s">
-        <v>497</v>
-      </c>
-      <c r="E43" s="75" t="s">
-        <v>486</v>
-      </c>
-      <c r="F43" s="75" t="s">
-        <v>487</v>
-      </c>
-      <c r="G43" s="75" t="s">
-        <v>488</v>
       </c>
       <c r="H43" s="78"/>
       <c r="I43" s="75" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J43" s="79" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K43" s="75" t="s">
+        <v>492</v>
+      </c>
+      <c r="L43" s="75" t="s">
+        <v>493</v>
+      </c>
+      <c r="M43" s="75" t="s">
+        <v>489</v>
+      </c>
+      <c r="N43" s="64" t="s">
         <v>495</v>
-      </c>
-      <c r="L43" s="75" t="s">
-        <v>496</v>
-      </c>
-      <c r="M43" s="75" t="s">
-        <v>492</v>
-      </c>
-      <c r="N43" s="64" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="67" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B44" s="75" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C44" s="75" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D44" s="80" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E44" s="75" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F44" s="75" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G44" s="75" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H44" s="78"/>
       <c r="I44" s="75" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J44" s="75" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K44" s="75" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L44" s="75" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M44" s="75" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="N44" s="75" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -3355,23 +3485,23 @@
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="67"/>
       <c r="B47" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="76" t="s">
-        <v>56</v>
-      </c>
       <c r="D47" s="76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E47" s="77"/>
       <c r="F47" s="76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G47" s="76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H47" s="76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I47" s="67"/>
       <c r="J47" s="67"/>
@@ -3382,7 +3512,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="67" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B48" s="67"/>
       <c r="C48" s="67"/>
@@ -3400,7 +3530,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="67" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B49" s="67"/>
       <c r="C49" s="67"/>
@@ -3467,6 +3597,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3475,7 +3606,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3489,65 +3620,65 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -3555,58 +3686,58 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -3614,10 +3745,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -3625,10 +3756,10 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -3636,10 +3767,10 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -3647,22 +3778,22 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3673,7 +3804,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -3684,7 +3815,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -3695,7 +3826,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -3706,7 +3837,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B22">
         <v>40</v>
@@ -3723,10 +3854,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3034823A-014A-402D-994F-F4A05E7ABD19}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3735,159 +3866,513 @@
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
         <v>124</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" t="s">
+        <v>512</v>
+      </c>
+      <c r="I3" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" s="83"/>
+      <c r="M3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G4" t="s">
+        <v>520</v>
+      </c>
+      <c r="I4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" t="s">
+        <v>523</v>
+      </c>
+      <c r="I5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>75</v>
       </c>
-      <c r="D3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>76</v>
-      </c>
       <c r="E6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="I6" t="s">
+        <v>518</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>514</v>
+      </c>
+      <c r="I7" t="s">
+        <v>504</v>
+      </c>
+      <c r="J7" t="s">
+        <v>510</v>
+      </c>
+      <c r="K7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="G8" t="s">
+        <v>519</v>
+      </c>
+      <c r="I8" t="s">
+        <v>506</v>
+      </c>
+      <c r="M8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="G9" t="s">
+        <v>508</v>
+      </c>
+      <c r="I9" t="s">
+        <v>507</v>
+      </c>
+      <c r="M9" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="I10" t="s">
+        <v>515</v>
+      </c>
+      <c r="J10" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>525</v>
+      </c>
+      <c r="I11" t="s">
+        <v>516</v>
+      </c>
+      <c r="J11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>524</v>
+      </c>
+      <c r="I12" t="s">
+        <v>522</v>
+      </c>
+      <c r="J12" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I13" t="s">
+        <v>245</v>
+      </c>
+      <c r="J13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
+      <c r="G14" t="s">
+        <v>517</v>
+      </c>
+      <c r="I14" t="s">
+        <v>513</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
+      <c r="I15" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E15" t="s">
+      <c r="G17" t="s">
+        <v>521</v>
+      </c>
+      <c r="I17" t="s">
+        <v>529</v>
+      </c>
+      <c r="J17" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" t="s">
+      <c r="G18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s">
+        <v>117</v>
+      </c>
+      <c r="J18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E19" t="s">
-        <v>143</v>
+      <c r="J19" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>530</v>
+      </c>
+      <c r="J21" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>531</v>
+      </c>
+      <c r="J25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>117</v>
+      </c>
+      <c r="J26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071620A5-3B1B-4842-AAA4-E39B1C832D25}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B6">
+        <f>($A$2+3*$B$2+QUOTIENT($C$2,4))*B$5</f>
+        <v>84</v>
+      </c>
+      <c r="C6">
+        <f>($A$2+3*$B$2+QUOTIENT($C$2,4))*C$5</f>
+        <v>189</v>
+      </c>
+      <c r="D6">
+        <f>($A$2+3*$B$2+QUOTIENT($C$2,4))*D$5</f>
+        <v>336</v>
+      </c>
+      <c r="E6">
+        <f>($A$2+3*$B$2+QUOTIENT($C$2,4))*E$5</f>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>543</v>
+      </c>
+      <c r="B7">
+        <f>($A$2+3*$B$2+QUOTIENT($C$2,4))*B$5*2</f>
+        <v>168</v>
+      </c>
+      <c r="C7">
+        <f>($A$2+3*$B$2+QUOTIENT($C$2,4))*C$5*2</f>
+        <v>378</v>
+      </c>
+      <c r="D7">
+        <f>($A$2+3*$B$2+QUOTIENT($C$2,4))*D$5*2</f>
+        <v>672</v>
+      </c>
+      <c r="E7">
+        <f>($A$2+3*$B$2+QUOTIENT($C$2,4))*E$5*2</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>544</v>
+      </c>
+      <c r="B8">
+        <f>(B6+B7)/2</f>
+        <v>126</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:E8" si="0">(C6+C7)/2</f>
+        <v>283.5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>504</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>787.5</v>
       </c>
     </row>
   </sheetData>
@@ -3895,7 +4380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21AE0FE-0550-4A50-A428-F4972BDBD2F3}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -3913,18 +4398,18 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
         <v>109</v>
-      </c>
-      <c r="C1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3932,93 +4417,93 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
         <v>94</v>
       </c>
-      <c r="B4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" t="s">
-        <v>95</v>
-      </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
         <v>96</v>
       </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>97</v>
-      </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4027,7 +4512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B53968-0167-4F4F-BD4B-0794225E238B}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -4046,228 +4531,228 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
         <v>151</v>
       </c>
-      <c r="C1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" t="s">
-        <v>154</v>
-      </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" t="s">
         <v>181</v>
       </c>
-      <c r="H2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I2" t="s">
-        <v>184</v>
-      </c>
       <c r="J2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>159</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>162</v>
-      </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" t="s">
         <v>165</v>
-      </c>
-      <c r="C7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
         <v>57</v>
       </c>
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
-      </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="54"/>
       <c r="B11" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="56" t="s">
         <v>151</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B12" s="54"/>
       <c r="C12" s="55" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="57" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C13" s="58"/>
       <c r="D13" s="58" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="57" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D14" s="58"/>
       <c r="E14" s="59" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="60" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C15" s="61"/>
       <c r="D15" s="61" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E15" s="62"/>
     </row>
@@ -4276,7 +4761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F22D4E-FC21-4D0F-B535-11FE6D9F512D}">
   <dimension ref="A1:K34"/>
   <sheetViews>
@@ -4296,422 +4781,422 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B4" s="3"/>
       <c r="D4" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -4720,7 +5205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC84A19-D4A7-4A92-BABE-05F233968AC8}">
   <dimension ref="A1:M37"/>
   <sheetViews>
@@ -4736,360 +5221,360 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L1" t="s">
+        <v>339</v>
+      </c>
+      <c r="M1" t="s">
         <v>342</v>
-      </c>
-      <c r="M1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L2" s="81" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M2" s="82" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L3" s="81"/>
       <c r="M3" s="82"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M4" s="83" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M5" s="83"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M14" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D15" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J15" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" t="s">
+        <v>361</v>
+      </c>
+      <c r="F16" t="s">
         <v>309</v>
       </c>
-      <c r="D16" t="s">
-        <v>364</v>
-      </c>
-      <c r="F16" t="s">
-        <v>312</v>
-      </c>
       <c r="J16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M17" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D18" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D19" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J19" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M19" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M20" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D21" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M21" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C22" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D22" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B23" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D23" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B24" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C24" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D24" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M24" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B26" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C26" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M26" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B27" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D27" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M27" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B28" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M28" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B30" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F30" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B32" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B34" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D37" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -5102,11 +5587,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E22B74D-B8FD-400B-BAD2-C416C024FFE8}">
   <dimension ref="A1:A71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
@@ -5114,357 +5599,357 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEF0530-0F9A-4ADC-A6A7-9DEDC36A4367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9EFAA4-827B-4339-9BD9-C3B77BCBA4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="545">
   <si>
     <t>Guard</t>
   </si>
@@ -316,66 +316,6 @@
     <t>Cool</t>
   </si>
   <si>
-    <t>Effect</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>Stat</t>
-  </si>
-  <si>
-    <t>Boost</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Chance</t>
-  </si>
-  <si>
-    <t>Drain</t>
-  </si>
-  <si>
-    <t>Instant Death</t>
-  </si>
-  <si>
-    <t>Reduce HP to 1</t>
-  </si>
-  <si>
-    <t>Counter</t>
-  </si>
-  <si>
-    <t>Vanish into Air</t>
-  </si>
-  <si>
-    <t>Double Turn</t>
-  </si>
-  <si>
-    <t>End Turn</t>
-  </si>
-  <si>
-    <t>"Lose 12% of health and may lose next turn"</t>
-  </si>
-  <si>
-    <t>May multiply damage</t>
-  </si>
-  <si>
-    <t>User Dies</t>
-  </si>
-  <si>
-    <t>Remove Condition</t>
-  </si>
-  <si>
-    <t>Param1 (string)</t>
-  </si>
-  <si>
-    <t>Param2 (int)</t>
-  </si>
-  <si>
-    <t>May ignore Defense</t>
-  </si>
-  <si>
     <t>Dull</t>
   </si>
   <si>
@@ -1682,6 +1622,60 @@
   </si>
   <si>
     <t>Rounds</t>
+  </si>
+  <si>
+    <t>All Conditions:</t>
+  </si>
+  <si>
+    <t>Venom</t>
+  </si>
+  <si>
+    <t>Seal</t>
+  </si>
+  <si>
+    <t>SummonSeal</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Stun</t>
+  </si>
+  <si>
+    <t>Death Curse</t>
+  </si>
+  <si>
+    <t>Delusion</t>
+  </si>
+  <si>
+    <t>Haunt</t>
+  </si>
+  <si>
+    <t>Cure Poison</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Flinch?</t>
+  </si>
+  <si>
+    <t>Venom*</t>
+  </si>
+  <si>
+    <t>Cures Venom down to Poison first</t>
+  </si>
+  <si>
+    <t>Remedy (Pure Mage)</t>
+  </si>
+  <si>
+    <t>Unicorn Ring</t>
+  </si>
+  <si>
+    <t>Elven Ring</t>
+  </si>
+  <si>
+    <t>Virtuous Armlet</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1727,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1803,6 +1797,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE7FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2017,7 +2023,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2138,14 +2144,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2153,6 +2162,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FFFFE7FF"/>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2535,22 +2551,22 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -2569,7 +2585,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>70</v>
@@ -2620,7 +2636,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>67</v>
@@ -2650,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>10</v>
@@ -2689,7 +2705,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>15</v>
@@ -2760,7 +2776,7 @@
         <v>31</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="G8" s="64"/>
       <c r="H8" s="64"/>
@@ -2877,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>19</v>
@@ -2888,10 +2904,10 @@
         <v>7</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="L11" s="48" t="s">
         <v>12</v>
@@ -2945,13 +2961,13 @@
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="53" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="D13" s="53" t="s">
         <v>49</v>
@@ -2965,22 +2981,22 @@
       <c r="G13" s="49"/>
       <c r="H13" s="49"/>
       <c r="I13" s="53" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="K13" s="53" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="L13" s="53" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="M13" s="66" t="s">
         <v>6</v>
       </c>
       <c r="N13" s="66" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -3185,22 +3201,22 @@
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="67"/>
       <c r="B37" s="68" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="C37" s="69" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D37" s="68" t="s">
         <v>0</v>
       </c>
       <c r="E37" s="70" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="F37" s="69" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="H37" s="69" t="s">
         <v>1</v>
@@ -3220,37 +3236,37 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="67" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="B38" s="67" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="C38" s="67" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="D38" s="67" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="E38" s="67" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="F38" s="67" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="G38" s="67" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="H38" s="67" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="I38" s="67" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="J38" s="67" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="K38" s="67" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="L38" s="67"/>
       <c r="M38" s="67"/>
@@ -3258,37 +3274,37 @@
     </row>
     <row r="39" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="67" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="B39" s="67" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="C39" s="67" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="D39" s="67" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="E39" s="67" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="F39" s="67" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="G39" s="67" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="H39" s="67" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="I39" s="67" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="J39" s="67" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="K39" s="67" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="L39" s="67"/>
       <c r="M39" s="67"/>
@@ -3344,7 +3360,7 @@
         <v>31</v>
       </c>
       <c r="G42" s="74" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="H42" s="75"/>
       <c r="I42" s="71" t="s">
@@ -3368,86 +3384,86 @@
     </row>
     <row r="43" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="67" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="B43" s="75" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="C43" s="75" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="D43" s="75" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="E43" s="75" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="F43" s="75" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="G43" s="75" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="H43" s="78"/>
       <c r="I43" s="75" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="J43" s="79" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="K43" s="75" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="L43" s="75" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="M43" s="75" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="N43" s="64" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="67" t="s">
+        <v>441</v>
+      </c>
+      <c r="B44" s="75" t="s">
         <v>461</v>
       </c>
-      <c r="B44" s="75" t="s">
-        <v>481</v>
-      </c>
       <c r="C44" s="75" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="D44" s="80" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="E44" s="75" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="F44" s="75" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="G44" s="75" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="H44" s="78"/>
       <c r="I44" s="75" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="J44" s="75" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="K44" s="75" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="L44" s="75" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="M44" s="75" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="N44" s="75" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -3512,7 +3528,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="67" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="B48" s="67"/>
       <c r="C48" s="67"/>
@@ -3530,7 +3546,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="67" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="B49" s="67"/>
       <c r="C49" s="67"/>
@@ -3620,65 +3636,65 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="C1" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="F1" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="G1" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="J1" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="K1" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="G2" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="I2" t="s">
         <v>54</v>
       </c>
       <c r="N2" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="G3" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="I3" t="s">
         <v>55</v>
       </c>
       <c r="N3" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -3692,12 +3708,12 @@
         <v>56</v>
       </c>
       <c r="N4" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -3706,12 +3722,12 @@
         <v>57</v>
       </c>
       <c r="N5" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -3720,24 +3736,24 @@
         <v>58</v>
       </c>
       <c r="N6" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="I7" t="s">
         <v>59</v>
       </c>
       <c r="N7" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -3748,7 +3764,7 @@
         <v>46</v>
       </c>
       <c r="N8" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -3759,7 +3775,7 @@
         <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -3770,7 +3786,7 @@
         <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -3788,12 +3804,12 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3804,7 +3820,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -3815,7 +3831,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -3826,7 +3842,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -3837,7 +3853,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="B22">
         <v>40</v>
@@ -3881,16 +3897,16 @@
         <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="G1" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -3898,13 +3914,13 @@
         <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G2" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -3912,64 +3928,64 @@
         <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>512</v>
-      </c>
-      <c r="I3" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="L3" s="83"/>
+        <v>492</v>
+      </c>
+      <c r="I3" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="81"/>
       <c r="M3" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="I4" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="J4" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="K4" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G5" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="I5" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="M5" t="s">
         <v>88</v>
@@ -3980,16 +3996,16 @@
         <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="I6" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="J6" t="s">
         <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="M6" t="s">
         <v>37</v>
@@ -3997,62 +4013,62 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G7" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="I7" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="J7" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="K7" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="M7" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="I8" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="M8" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="I9" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="M9" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -4060,16 +4076,16 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="I10" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="J10" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -4080,38 +4096,38 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="I11" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="J11" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="I12" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="J12" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="I13" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="J13" t="s">
         <v>70</v>
@@ -4119,24 +4135,24 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="I14" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="I15" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -4144,103 +4160,103 @@
         <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="G17" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="I17" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="J17" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G18" t="s">
         <v>79</v>
       </c>
       <c r="I18" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="J18" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="J19" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J20" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.3">
       <c r="I21" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="J21" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="J22" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J24" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="J25" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.3">
       <c r="I26" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="J26" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J27" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J28" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J29" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4256,7 +4272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071620A5-3B1B-4842-AAA4-E39B1C832D25}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -4264,13 +4280,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="B1" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="C1" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -4286,16 +4302,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="E4" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -4314,7 +4330,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="B6">
         <f>($A$2+3*$B$2+QUOTIENT($C$2,4))*B$5</f>
@@ -4335,7 +4351,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="B7">
         <f>($A$2+3*$B$2+QUOTIENT($C$2,4))*B$5*2</f>
@@ -4356,7 +4372,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="B8">
         <f>(B6+B7)/2</f>
@@ -4382,128 +4398,226 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21AE0FE-0550-4A50-A428-F4972BDBD2F3}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="4.21875" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="84" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="84" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="85" t="s">
+        <v>529</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="85" t="s">
+        <v>530</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+      <c r="F5" t="s">
+        <v>351</v>
+      </c>
+      <c r="G5" t="s">
+        <v>529</v>
+      </c>
+      <c r="H5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J5" t="s">
+        <v>351</v>
+      </c>
+      <c r="K5" t="s">
+        <v>351</v>
+      </c>
+      <c r="M5" t="s">
+        <v>537</v>
+      </c>
+      <c r="O5" t="s">
+        <v>351</v>
+      </c>
+      <c r="P5" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
+        <v>531</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>531</v>
+      </c>
+      <c r="F6" t="s">
+        <v>528</v>
+      </c>
+      <c r="G6" t="s">
+        <v>531</v>
+      </c>
+      <c r="J6" t="s">
+        <v>539</v>
+      </c>
+      <c r="K6" t="s">
+        <v>528</v>
+      </c>
+      <c r="O6" t="s">
+        <v>528</v>
+      </c>
+      <c r="P6" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>532</v>
+      </c>
+      <c r="E7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G7" t="s">
+        <v>532</v>
+      </c>
+      <c r="J7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P7" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>533</v>
+      </c>
+      <c r="E8" t="s">
+        <v>533</v>
+      </c>
+      <c r="G8" t="s">
+        <v>533</v>
+      </c>
+      <c r="J8" t="s">
+        <v>534</v>
+      </c>
+      <c r="P8" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>534</v>
+      </c>
+      <c r="E9" t="s">
+        <v>534</v>
+      </c>
+      <c r="G9" t="s">
+        <v>534</v>
+      </c>
+      <c r="J9" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="86" t="s">
+        <v>535</v>
+      </c>
+      <c r="G10" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>538</v>
+      </c>
+      <c r="G11" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>539</v>
+      </c>
+      <c r="F14" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -4531,36 +4645,36 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="H1" t="s">
         <v>87</v>
       </c>
       <c r="I1" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="J1" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
@@ -4569,27 +4683,27 @@
         <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="H2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="I2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="J2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
@@ -4601,38 +4715,38 @@
         <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="J3" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="J4" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
@@ -4644,21 +4758,21 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4686,73 +4800,73 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="54"/>
       <c r="B11" s="55" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B12" s="54"/>
       <c r="C12" s="55" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="57" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C13" s="58"/>
       <c r="D13" s="58" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="57" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="D14" s="58"/>
       <c r="E14" s="59" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="60" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C15" s="61"/>
       <c r="D15" s="61" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E15" s="62"/>
     </row>
@@ -4781,422 +4895,422 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B4" s="3"/>
       <c r="D4" s="2" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="2" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -5221,360 +5335,360 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K1" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="L1" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="M1" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K2" t="s">
-        <v>333</v>
-      </c>
-      <c r="L2" s="81" t="s">
-        <v>346</v>
-      </c>
-      <c r="M2" s="82" t="s">
-        <v>343</v>
+        <v>313</v>
+      </c>
+      <c r="L2" s="82" t="s">
+        <v>326</v>
+      </c>
+      <c r="M2" s="83" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K3" t="s">
-        <v>333</v>
-      </c>
-      <c r="L3" s="81"/>
-      <c r="M3" s="82"/>
+        <v>313</v>
+      </c>
+      <c r="L3" s="82"/>
+      <c r="M3" s="83"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K4" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="L4" t="s">
-        <v>340</v>
-      </c>
-      <c r="M4" s="83" t="s">
-        <v>344</v>
+        <v>320</v>
+      </c>
+      <c r="M4" s="81" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K5" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="L5" t="s">
-        <v>340</v>
-      </c>
-      <c r="M5" s="83"/>
+        <v>320</v>
+      </c>
+      <c r="M5" s="81"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K6" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="L6" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="M6" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="K7" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="L7" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="M7" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K8" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="L8" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="M8" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="J14" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="M14" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="B15" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="C15" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="D15" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="J15" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="M15" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="D16" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="F16" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="J16" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="M16" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="C17" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="D17" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="J17" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="M17" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="D18" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="J18" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="M18" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="D19" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="J19" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="M19" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C20" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="D20" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="M20" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="D21" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="M21" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="B22" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C22" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="D22" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="M22" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="B23" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="D23" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="B24" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="C24" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="D24" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="M24" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M25" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="B26" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="C26" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="M26" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="B27" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="D27" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="M27" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="B28" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="M28" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="M29" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="B30" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="F30" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="B32" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B34" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="D37" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -5599,357 +5713,357 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/IodemBot/IodemClassSheet (version 1).xlsx
+++ b/IodemBot/IodemClassSheet (version 1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\source\repos\IodemBot\IodemBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9EFAA4-827B-4339-9BD9-C3B77BCBA4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983F5A19-F577-4157-AD13-9B5CB4DDA151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{1DC72B9C-AF88-45DA-AAFC-49E2D3101559}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="568">
   <si>
     <t>Guard</t>
   </si>
@@ -1676,13 +1676,82 @@
   </si>
   <si>
     <t>Virtuous Armlet</t>
+  </si>
+  <si>
+    <t>Dracoholt</t>
+  </si>
+  <si>
+    <t>Acrobat</t>
+  </si>
+  <si>
+    <t>Reaper</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>Joker</t>
+  </si>
+  <si>
+    <t>Ace</t>
+  </si>
+  <si>
+    <t>(idk if 4)</t>
+  </si>
+  <si>
+    <t>Harlequin</t>
+  </si>
+  <si>
+    <t>Beast Lord</t>
+  </si>
+  <si>
+    <t>Beast Keeper</t>
+  </si>
+  <si>
+    <t>Crypt Lord</t>
+  </si>
+  <si>
+    <t>Necromage</t>
+  </si>
+  <si>
+    <t>Apostate</t>
+  </si>
+  <si>
+    <t>Dracobolt</t>
+  </si>
+  <si>
+    <t>Baffle Card</t>
+  </si>
+  <si>
+    <t>Sword Card</t>
+  </si>
+  <si>
+    <t>Flame Card</t>
+  </si>
+  <si>
+    <t>Sleep Card</t>
+  </si>
+  <si>
+    <t>Thunder Card</t>
+  </si>
+  <si>
+    <t>Death Card</t>
+  </si>
+  <si>
+    <t>Bramble Card</t>
+  </si>
+  <si>
+    <t>Frost Card</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1719,6 +1788,14 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2023,7 +2100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2144,6 +2221,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2152,15 +2235,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{96F5CFF9-578C-433E-B401-E4A3F8FFBEAD}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2528,7 +2625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2B1135-77C9-499B-B6C9-9E2B30F8D34D}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I24" sqref="I24:K29"/>
     </sheetView>
   </sheetViews>
@@ -3272,7 +3369,7 @@
       <c r="M38" s="67"/>
       <c r="N38" s="67"/>
     </row>
-    <row r="39" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="67" t="s">
         <v>441</v>
       </c>
@@ -3342,7 +3439,7 @@
       <c r="M41" s="67"/>
       <c r="N41" s="67"/>
     </row>
-    <row r="42" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="67"/>
       <c r="B42" s="71" t="s">
         <v>28</v>
@@ -3870,10 +3967,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3034823A-014A-402D-994F-F4A05E7ABD19}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3882,6 +3979,9 @@
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
@@ -3933,14 +4033,14 @@
       <c r="G3" t="s">
         <v>492</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81" t="s">
+      <c r="J3" s="85"/>
+      <c r="K3" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="81"/>
+      <c r="L3" s="85"/>
       <c r="M3" t="s">
         <v>98</v>
       </c>
@@ -4106,6 +4206,9 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>545</v>
+      </c>
       <c r="E12" t="s">
         <v>115</v>
       </c>
@@ -4257,6 +4360,218 @@
     <row r="29" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J29" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="88" t="s">
+        <v>546</v>
+      </c>
+      <c r="E34" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="88" t="s">
+        <v>513</v>
+      </c>
+      <c r="G34" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="88" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C35" s="89" t="s">
+        <v>548</v>
+      </c>
+      <c r="D35" s="89" t="s">
+        <v>549</v>
+      </c>
+      <c r="E35" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="89" t="s">
+        <v>548</v>
+      </c>
+      <c r="H35" s="89" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="81" t="s">
+        <v>546</v>
+      </c>
+      <c r="E36" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="81" t="s">
+        <v>513</v>
+      </c>
+      <c r="G36" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="D37" s="81" t="s">
+        <v>553</v>
+      </c>
+      <c r="E37" s="81" t="s">
+        <v>555</v>
+      </c>
+      <c r="F37" s="81" t="s">
+        <v>514</v>
+      </c>
+      <c r="G37" s="81" t="s">
+        <v>556</v>
+      </c>
+      <c r="H37" s="81" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="81" t="s">
+        <v>551</v>
+      </c>
+      <c r="D38" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="81" t="s">
+        <v>554</v>
+      </c>
+      <c r="F38" s="81" t="s">
+        <v>515</v>
+      </c>
+      <c r="G38" s="81" t="s">
+        <v>557</v>
+      </c>
+      <c r="H38" s="81" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="81" t="s">
+        <v>560</v>
+      </c>
+      <c r="D40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" s="81" t="s">
+        <v>508</v>
+      </c>
+      <c r="H40" s="81" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="81" t="s">
+        <v>561</v>
+      </c>
+      <c r="D41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" t="s">
+        <v>489</v>
+      </c>
+      <c r="F41" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" s="81" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="81" t="s">
+        <v>562</v>
+      </c>
+      <c r="D42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" t="s">
+        <v>492</v>
+      </c>
+      <c r="F42" s="81" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="81" t="s">
+        <v>563</v>
+      </c>
+      <c r="E43" t="s">
+        <v>500</v>
+      </c>
+      <c r="F43" s="81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="81" t="s">
+        <v>564</v>
+      </c>
+      <c r="E44" t="s">
+        <v>503</v>
+      </c>
+      <c r="F44" s="81" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="81" t="s">
+        <v>565</v>
+      </c>
+      <c r="E45" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="81" t="s">
+        <v>566</v>
+      </c>
+      <c r="E46" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="81" t="s">
+        <v>567</v>
+      </c>
+      <c r="E47" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="81" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -4264,7 +4579,11 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
   </mergeCells>
+  <conditionalFormatting sqref="F43:F44">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4400,7 +4719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21AE0FE-0550-4A50-A428-F4972BDBD2F3}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -4424,17 +4743,17 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="82" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="82" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="83" t="s">
         <v>529</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -4470,7 +4789,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="83" t="s">
         <v>530</v>
       </c>
       <c r="E5" t="s">
@@ -4591,7 +4910,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="84" t="s">
         <v>535</v>
       </c>
       <c r="G10" t="s">
@@ -5323,7 +5642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC84A19-D4A7-4A92-BABE-05F233968AC8}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
@@ -5348,10 +5667,10 @@
       <c r="K2" t="s">
         <v>313</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="L2" s="86" t="s">
         <v>326</v>
       </c>
-      <c r="M2" s="83" t="s">
+      <c r="M2" s="87" t="s">
         <v>323</v>
       </c>
     </row>
@@ -5359,8 +5678,8 @@
       <c r="K3" t="s">
         <v>313</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="87"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K4" t="s">
@@ -5369,7 +5688,7 @@
       <c r="L4" t="s">
         <v>320</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="85" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5380,7 +5699,7 @@
       <c r="L5" t="s">
         <v>320</v>
       </c>
-      <c r="M5" s="81"/>
+      <c r="M5" s="85"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K6" t="s">
